--- a/Stock/8092.xlsx
+++ b/Stock/8092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="989">
   <si>
     <t>시간</t>
   </si>
@@ -28,457 +28,2959 @@
     <t>특이사항</t>
   </si>
   <si>
-    <t>13:54</t>
-  </si>
-  <si>
-    <t>13:57</t>
-  </si>
-  <si>
-    <t>13:52</t>
-  </si>
-  <si>
-    <t>13:42</t>
-  </si>
-  <si>
-    <t>13:27</t>
-  </si>
-  <si>
-    <t>13:32</t>
-  </si>
-  <si>
-    <t>12:13</t>
-  </si>
-  <si>
-    <t>13:41</t>
-  </si>
-  <si>
-    <t>13:39</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>09:02</t>
-  </si>
-  <si>
-    <t>13:51</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>13:53</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>13:55</t>
-  </si>
-  <si>
-    <t>A047310</t>
-  </si>
-  <si>
-    <t>A033270</t>
-  </si>
-  <si>
-    <t>A047050</t>
-  </si>
-  <si>
-    <t>A005680</t>
+    <t>16:46</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>16:44</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>16:32</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
+    <t>16:33</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>16:29</t>
+  </si>
+  <si>
+    <t>16:28</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>16:27</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>16:23</t>
+  </si>
+  <si>
+    <t>16:22</t>
+  </si>
+  <si>
+    <t>16:21</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:19</t>
+  </si>
+  <si>
+    <t>16:18</t>
+  </si>
+  <si>
+    <t>16:17</t>
+  </si>
+  <si>
+    <t>16:16</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:14</t>
+  </si>
+  <si>
+    <t>16:13</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>16:11</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>16:08</t>
+  </si>
+  <si>
+    <t>16:07</t>
+  </si>
+  <si>
+    <t>16:06</t>
+  </si>
+  <si>
+    <t>16:05</t>
+  </si>
+  <si>
+    <t>16:04</t>
+  </si>
+  <si>
+    <t>16:03</t>
+  </si>
+  <si>
+    <t>16:02</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:01</t>
+  </si>
+  <si>
+    <t>15:58</t>
+  </si>
+  <si>
+    <t>15:59</t>
+  </si>
+  <si>
+    <t>15:57</t>
+  </si>
+  <si>
+    <t>15:56</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>15:54</t>
+  </si>
+  <si>
+    <t>15:53</t>
+  </si>
+  <si>
+    <t>15:52</t>
+  </si>
+  <si>
+    <t>15:51</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>15:49</t>
+  </si>
+  <si>
+    <t>15:48</t>
+  </si>
+  <si>
+    <t>15:47</t>
+  </si>
+  <si>
+    <t>A002070</t>
+  </si>
+  <si>
+    <t>A014580</t>
+  </si>
+  <si>
+    <t>A088350</t>
+  </si>
+  <si>
+    <t>A100840</t>
+  </si>
+  <si>
+    <t>A220110</t>
+  </si>
+  <si>
+    <t>A003540</t>
+  </si>
+  <si>
+    <t>A196490</t>
+  </si>
+  <si>
+    <t>A187870</t>
+  </si>
+  <si>
+    <t>A000640</t>
+  </si>
+  <si>
+    <t>A013580</t>
+  </si>
+  <si>
+    <t>A199150</t>
+  </si>
+  <si>
+    <t>A131970</t>
+  </si>
+  <si>
+    <t>A002710</t>
+  </si>
+  <si>
+    <t>A069330</t>
+  </si>
+  <si>
+    <t>A222110</t>
+  </si>
+  <si>
+    <t>A228760</t>
+  </si>
+  <si>
+    <t>A077970</t>
+  </si>
+  <si>
+    <t>A009270</t>
+  </si>
+  <si>
+    <t>A256450</t>
+  </si>
+  <si>
+    <t>A039840</t>
+  </si>
+  <si>
+    <t>A013520</t>
+  </si>
+  <si>
+    <t>A006800</t>
+  </si>
+  <si>
+    <t>A217600</t>
+  </si>
+  <si>
+    <t>A042040</t>
+  </si>
+  <si>
+    <t>A229000</t>
+  </si>
+  <si>
+    <t>A046940</t>
+  </si>
+  <si>
+    <t>A025890</t>
+  </si>
+  <si>
+    <t>A017670</t>
+  </si>
+  <si>
+    <t>A049470</t>
+  </si>
+  <si>
+    <t>A226360</t>
+  </si>
+  <si>
+    <t>A170900</t>
+  </si>
+  <si>
+    <t>A181480</t>
+  </si>
+  <si>
+    <t>A241790</t>
+  </si>
+  <si>
+    <t>A118000</t>
+  </si>
+  <si>
+    <t>A082270</t>
+  </si>
+  <si>
+    <t>A007820</t>
+  </si>
+  <si>
+    <t>A114630</t>
+  </si>
+  <si>
+    <t>A119500</t>
+  </si>
+  <si>
+    <t>A094940</t>
+  </si>
+  <si>
+    <t>A005930</t>
   </si>
   <si>
     <t>A047040</t>
   </si>
   <si>
+    <t>A221840</t>
+  </si>
+  <si>
+    <t>A043910</t>
+  </si>
+  <si>
+    <t>A051910</t>
+  </si>
+  <si>
+    <t>A008290</t>
+  </si>
+  <si>
+    <t>A006220</t>
+  </si>
+  <si>
+    <t>A263860</t>
+  </si>
+  <si>
+    <t>A251270</t>
+  </si>
+  <si>
+    <t>A096530</t>
+  </si>
+  <si>
+    <t>A002800</t>
+  </si>
+  <si>
+    <t>A045390</t>
+  </si>
+  <si>
+    <t>A001290</t>
+  </si>
+  <si>
+    <t>A207940</t>
+  </si>
+  <si>
+    <t>A011810</t>
+  </si>
+  <si>
+    <t>A012160</t>
+  </si>
+  <si>
+    <t>A285130</t>
+  </si>
+  <si>
+    <t>A178320</t>
+  </si>
+  <si>
+    <t>A028300</t>
+  </si>
+  <si>
+    <t>A035420</t>
+  </si>
+  <si>
+    <t>A246710</t>
+  </si>
+  <si>
+    <t>A067000</t>
+  </si>
+  <si>
+    <t>A124500</t>
+  </si>
+  <si>
+    <t>A000020</t>
+  </si>
+  <si>
+    <t>A000370</t>
+  </si>
+  <si>
+    <t>A000700</t>
+  </si>
+  <si>
+    <t>A000970</t>
+  </si>
+  <si>
+    <t>A001140</t>
+  </si>
+  <si>
+    <t>A001210</t>
+  </si>
+  <si>
+    <t>A001500</t>
+  </si>
+  <si>
+    <t>A002220</t>
+  </si>
+  <si>
+    <t>A002690</t>
+  </si>
+  <si>
+    <t>A000300</t>
+  </si>
+  <si>
+    <t>A002820</t>
+  </si>
+  <si>
+    <t>A000400</t>
+  </si>
+  <si>
+    <t>A108490</t>
+  </si>
+  <si>
+    <t>A002880</t>
+  </si>
+  <si>
+    <t>A000910</t>
+  </si>
+  <si>
+    <t>A003470</t>
+  </si>
+  <si>
+    <t>A004020</t>
+  </si>
+  <si>
+    <t>A004100</t>
+  </si>
+  <si>
+    <t>A001040</t>
+  </si>
+  <si>
+    <t>A001380</t>
+  </si>
+  <si>
+    <t>A001780</t>
+  </si>
+  <si>
+    <t>A002460</t>
+  </si>
+  <si>
+    <t>A002870</t>
+  </si>
+  <si>
+    <t>A039490</t>
+  </si>
+  <si>
+    <t>A036620</t>
+  </si>
+  <si>
+    <t>A003010</t>
+  </si>
+  <si>
     <t>A003530</t>
   </si>
   <si>
-    <t>A000990</t>
-  </si>
-  <si>
-    <t>A261120</t>
-  </si>
-  <si>
-    <t>A000890</t>
-  </si>
-  <si>
-    <t>A260870</t>
+    <t>A004060</t>
+  </si>
+  <si>
+    <t>A004910</t>
+  </si>
+  <si>
+    <t>A005010</t>
+  </si>
+  <si>
+    <t>A004960</t>
+  </si>
+  <si>
+    <t>A005740</t>
+  </si>
+  <si>
+    <t>A005380</t>
+  </si>
+  <si>
+    <t>A006110</t>
+  </si>
+  <si>
+    <t>A005750</t>
+  </si>
+  <si>
+    <t>A006340</t>
+  </si>
+  <si>
+    <t>A005870</t>
+  </si>
+  <si>
+    <t>A006740</t>
+  </si>
+  <si>
+    <t>A007280</t>
+  </si>
+  <si>
+    <t>A006390</t>
+  </si>
+  <si>
+    <t>A007980</t>
+  </si>
+  <si>
+    <t>A007120</t>
+  </si>
+  <si>
+    <t>A008420</t>
+  </si>
+  <si>
+    <t>A007810</t>
+  </si>
+  <si>
+    <t>A009410</t>
+  </si>
+  <si>
+    <t>A008260</t>
+  </si>
+  <si>
+    <t>A010400</t>
+  </si>
+  <si>
+    <t>A009070</t>
+  </si>
+  <si>
+    <t>A009440</t>
+  </si>
+  <si>
+    <t>A010640</t>
+  </si>
+  <si>
+    <t>A010770</t>
+  </si>
+  <si>
+    <t>A011090</t>
+  </si>
+  <si>
+    <t>A011170</t>
+  </si>
+  <si>
+    <t>A011210</t>
+  </si>
+  <si>
+    <t>A011300</t>
+  </si>
+  <si>
+    <t>A047920</t>
+  </si>
+  <si>
+    <t>A011700</t>
+  </si>
+  <si>
+    <t>A011780</t>
+  </si>
+  <si>
+    <t>A012200</t>
+  </si>
+  <si>
+    <t>A013360</t>
+  </si>
+  <si>
+    <t>A018880</t>
+  </si>
+  <si>
+    <t>A014910</t>
+  </si>
+  <si>
+    <t>A013570</t>
+  </si>
+  <si>
+    <t>A017810</t>
+  </si>
+  <si>
+    <t>A014280</t>
+  </si>
+  <si>
+    <t>A018500</t>
+  </si>
+  <si>
+    <t>A015890</t>
+  </si>
+  <si>
+    <t>A020120</t>
+  </si>
+  <si>
+    <t>A018470</t>
+  </si>
+  <si>
+    <t>A023800</t>
+  </si>
+  <si>
+    <t>A019440</t>
+  </si>
+  <si>
+    <t>A023960</t>
+  </si>
+  <si>
+    <t>A023000</t>
+  </si>
+  <si>
+    <t>A024110</t>
+  </si>
+  <si>
+    <t>A024070</t>
+  </si>
+  <si>
+    <t>A025620</t>
+  </si>
+  <si>
+    <t>A024890</t>
+  </si>
+  <si>
+    <t>A030610</t>
+  </si>
+  <si>
+    <t>A027970</t>
   </si>
   <si>
     <t>A205470</t>
   </si>
   <si>
-    <t>A032820</t>
+    <t>A047400</t>
+  </si>
+  <si>
+    <t>A032560</t>
+  </si>
+  <si>
+    <t>A055490</t>
+  </si>
+  <si>
+    <t>A067830</t>
+  </si>
+  <si>
+    <t>A069640</t>
+  </si>
+  <si>
+    <t>A069730</t>
+  </si>
+  <si>
+    <t>A071970</t>
+  </si>
+  <si>
+    <t>A079430</t>
+  </si>
+  <si>
+    <t>A084010</t>
+  </si>
+  <si>
+    <t>A092200</t>
+  </si>
+  <si>
+    <t>A092440</t>
+  </si>
+  <si>
+    <t>A103590</t>
+  </si>
+  <si>
+    <t>A123700</t>
+  </si>
+  <si>
+    <t>A138250</t>
+  </si>
+  <si>
+    <t>A155660</t>
+  </si>
+  <si>
+    <t>A200880</t>
+  </si>
+  <si>
+    <t>A078520</t>
+  </si>
+  <si>
+    <t>A084690</t>
+  </si>
+  <si>
+    <t>A091810</t>
+  </si>
+  <si>
+    <t>A096770</t>
+  </si>
+  <si>
+    <t>A214330</t>
+  </si>
+  <si>
+    <t>A101060</t>
+  </si>
+  <si>
+    <t>A115390</t>
+  </si>
+  <si>
+    <t>A129260</t>
+  </si>
+  <si>
+    <t>A138930</t>
+  </si>
+  <si>
+    <t>A241590</t>
+  </si>
+  <si>
+    <t>A161000</t>
+  </si>
+  <si>
+    <t>A241840</t>
+  </si>
+  <si>
+    <t>A210540</t>
+  </si>
+  <si>
+    <t>A214420</t>
+  </si>
+  <si>
+    <t>A267290</t>
+  </si>
+  <si>
+    <t>A264900</t>
+  </si>
+  <si>
+    <t>A286940</t>
+  </si>
+  <si>
+    <t>A298020</t>
+  </si>
+  <si>
+    <t>A307950</t>
+  </si>
+  <si>
+    <t>A004490</t>
+  </si>
+  <si>
+    <t>A007570</t>
+  </si>
+  <si>
+    <t>A094840</t>
+  </si>
+  <si>
+    <t>A136540</t>
+  </si>
+  <si>
+    <t>A293940</t>
+  </si>
+  <si>
+    <t>A014680</t>
+  </si>
+  <si>
+    <t>A001200</t>
+  </si>
+  <si>
+    <t>A204320</t>
+  </si>
+  <si>
+    <t>A299910</t>
+  </si>
+  <si>
+    <t>A214370</t>
+  </si>
+  <si>
+    <t>A015540</t>
+  </si>
+  <si>
+    <t>A031510</t>
+  </si>
+  <si>
+    <t>A003680</t>
+  </si>
+  <si>
+    <t>A036530</t>
+  </si>
+  <si>
+    <t>A010660</t>
+  </si>
+  <si>
+    <t>A003310</t>
+  </si>
+  <si>
+    <t>A018290</t>
+  </si>
+  <si>
+    <t>A108380</t>
+  </si>
+  <si>
+    <t>A033180</t>
+  </si>
+  <si>
+    <t>A323210</t>
+  </si>
+  <si>
+    <t>A080420</t>
+  </si>
+  <si>
+    <t>A179290</t>
+  </si>
+  <si>
+    <t>A288620</t>
+  </si>
+  <si>
+    <t>A337450</t>
+  </si>
+  <si>
+    <t>A110020</t>
   </si>
   <si>
     <t>A032790</t>
   </si>
   <si>
-    <t>A014830</t>
-  </si>
-  <si>
-    <t>A000850</t>
-  </si>
-  <si>
-    <t>A005360</t>
-  </si>
-  <si>
-    <t>A000815</t>
-  </si>
-  <si>
-    <t>A014680</t>
-  </si>
-  <si>
-    <t>A045100</t>
-  </si>
-  <si>
-    <t>A000700</t>
-  </si>
-  <si>
-    <t>A203400</t>
-  </si>
-  <si>
-    <t>A005290</t>
-  </si>
-  <si>
-    <t>A000660</t>
-  </si>
-  <si>
-    <t>A083640</t>
-  </si>
-  <si>
-    <t>A051910</t>
-  </si>
-  <si>
-    <t>A005110</t>
-  </si>
-  <si>
-    <t>A044380</t>
-  </si>
-  <si>
-    <t>A160600</t>
-  </si>
-  <si>
-    <t>A252500</t>
-  </si>
-  <si>
-    <t>A014100</t>
-  </si>
-  <si>
-    <t>A160580</t>
-  </si>
-  <si>
-    <t>A092590</t>
-  </si>
-  <si>
-    <t>A082850</t>
-  </si>
-  <si>
-    <t>A043650</t>
-  </si>
-  <si>
-    <t>A032500</t>
-  </si>
-  <si>
-    <t>A088800</t>
-  </si>
-  <si>
-    <t>A100590</t>
-  </si>
-  <si>
-    <t>A138080</t>
-  </si>
-  <si>
-    <t>A290550</t>
+    <t>A052600</t>
+  </si>
+  <si>
+    <t>A033340</t>
+  </si>
+  <si>
+    <t>A121060</t>
+  </si>
+  <si>
+    <t>A085670</t>
+  </si>
+  <si>
+    <t>A008970</t>
+  </si>
+  <si>
+    <t>A031860</t>
+  </si>
+  <si>
+    <t>A040910</t>
+  </si>
+  <si>
+    <t>A042660</t>
+  </si>
+  <si>
+    <t>A005320</t>
+  </si>
+  <si>
+    <t>A014970</t>
+  </si>
+  <si>
+    <t>A065660</t>
+  </si>
+  <si>
+    <t>A114120</t>
+  </si>
+  <si>
+    <t>A090710</t>
+  </si>
+  <si>
+    <t>A004650</t>
+  </si>
+  <si>
+    <t>A064240</t>
+  </si>
+  <si>
+    <t>A174880</t>
+  </si>
+  <si>
+    <t>A227950</t>
+  </si>
+  <si>
+    <t>A001680</t>
+  </si>
+  <si>
+    <t>A192410</t>
+  </si>
+  <si>
+    <t>A034300</t>
+  </si>
+  <si>
+    <t>A002410</t>
+  </si>
+  <si>
+    <t>A086790</t>
+  </si>
+  <si>
+    <t>A224060</t>
+  </si>
+  <si>
+    <t>A054210</t>
+  </si>
+  <si>
+    <t>A215620</t>
+  </si>
+  <si>
+    <t>A150440</t>
+  </si>
+  <si>
+    <t>A023450</t>
+  </si>
+  <si>
+    <t>A005420</t>
+  </si>
+  <si>
+    <t>A003550</t>
+  </si>
+  <si>
+    <t>A186230</t>
+  </si>
+  <si>
+    <t>A066360</t>
+  </si>
+  <si>
+    <t>A150840</t>
+  </si>
+  <si>
+    <t>A223310</t>
+  </si>
+  <si>
+    <t>A016360</t>
+  </si>
+  <si>
+    <t>A002320</t>
+  </si>
+  <si>
+    <t>A107590</t>
+  </si>
+  <si>
+    <t>A207760</t>
+  </si>
+  <si>
+    <t>A039560</t>
+  </si>
+  <si>
+    <t>A066570</t>
+  </si>
+  <si>
+    <t>A260660</t>
+  </si>
+  <si>
+    <t>A196300</t>
+  </si>
+  <si>
+    <t>A039570</t>
+  </si>
+  <si>
+    <t>A085620</t>
+  </si>
+  <si>
+    <t>A025820</t>
+  </si>
+  <si>
+    <t>A005940</t>
+  </si>
+  <si>
+    <t>A078150</t>
+  </si>
+  <si>
+    <t>A005190</t>
+  </si>
+  <si>
+    <t>A037030</t>
+  </si>
+  <si>
+    <t>A048770</t>
+  </si>
+  <si>
+    <t>A057030</t>
+  </si>
+  <si>
+    <t>A012340</t>
+  </si>
+  <si>
+    <t>A102260</t>
+  </si>
+  <si>
+    <t>A035290</t>
+  </si>
+  <si>
+    <t>A002230</t>
+  </si>
+  <si>
+    <t>A119860</t>
+  </si>
+  <si>
+    <t>A009540</t>
+  </si>
+  <si>
+    <t>A004000</t>
+  </si>
+  <si>
+    <t>A038620</t>
+  </si>
+  <si>
+    <t>A017550</t>
+  </si>
+  <si>
+    <t>A018260</t>
+  </si>
+  <si>
+    <t>A101280</t>
+  </si>
+  <si>
+    <t>A288490</t>
+  </si>
+  <si>
+    <t>A271850</t>
+  </si>
+  <si>
+    <t>A105740</t>
+  </si>
+  <si>
+    <t>A041910</t>
+  </si>
+  <si>
+    <t>A075180</t>
+  </si>
+  <si>
+    <t>A139480</t>
+  </si>
+  <si>
+    <t>A060480</t>
+  </si>
+  <si>
+    <t>A085810</t>
+  </si>
+  <si>
+    <t>A226440</t>
+  </si>
+  <si>
+    <t>A010470</t>
+  </si>
+  <si>
+    <t>A043090</t>
+  </si>
+  <si>
+    <t>A064550</t>
+  </si>
+  <si>
+    <t>A145020</t>
+  </si>
+  <si>
+    <t>A038110</t>
+  </si>
+  <si>
+    <t>A294870</t>
+  </si>
+  <si>
+    <t>A263720</t>
+  </si>
+  <si>
+    <t>A019570</t>
+  </si>
+  <si>
+    <t>A289010</t>
+  </si>
+  <si>
+    <t>A282330</t>
+  </si>
+  <si>
+    <t>A025880</t>
+  </si>
+  <si>
+    <t>A055550</t>
+  </si>
+  <si>
+    <t>A105560</t>
+  </si>
+  <si>
+    <t>A139130</t>
+  </si>
+  <si>
+    <t>A006880</t>
+  </si>
+  <si>
+    <t>A030350</t>
+  </si>
+  <si>
+    <t>A058530</t>
+  </si>
+  <si>
+    <t>A059090</t>
+  </si>
+  <si>
+    <t>A079940</t>
+  </si>
+  <si>
+    <t>A086890</t>
+  </si>
+  <si>
+    <t>A206650</t>
+  </si>
+  <si>
+    <t>A034730</t>
+  </si>
+  <si>
+    <t>A005960</t>
   </si>
   <si>
     <t>A036460</t>
   </si>
   <si>
-    <t>A002780</t>
-  </si>
-  <si>
-    <t>A000270</t>
-  </si>
-  <si>
-    <t>A005930</t>
-  </si>
-  <si>
-    <t>A011210</t>
-  </si>
-  <si>
-    <t>A066570</t>
-  </si>
-  <si>
-    <t>A082210</t>
-  </si>
-  <si>
-    <t>A009160</t>
-  </si>
-  <si>
-    <t>A148020</t>
-  </si>
-  <si>
-    <t>A033790</t>
-  </si>
-  <si>
-    <t>파워로직스</t>
-  </si>
-  <si>
-    <t>유나이티드제약</t>
-  </si>
-  <si>
-    <t>포스코인터내셔널</t>
-  </si>
-  <si>
-    <t>삼영전자</t>
+    <t>A228670</t>
+  </si>
+  <si>
+    <t>A267250</t>
+  </si>
+  <si>
+    <t>A005490</t>
+  </si>
+  <si>
+    <t>남영비비안</t>
+  </si>
+  <si>
+    <t>백광소재</t>
+  </si>
+  <si>
+    <t>한화생명</t>
+  </si>
+  <si>
+    <t>S&amp;TC</t>
+  </si>
+  <si>
+    <t>드림티엔터테인먼트</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>디에이테크놀로지</t>
+  </si>
+  <si>
+    <t>디바이스이엔지</t>
+  </si>
+  <si>
+    <t>동아쏘시오홀딩스</t>
+  </si>
+  <si>
+    <t>계룡건설</t>
+  </si>
+  <si>
+    <t>데이터스트림즈</t>
+  </si>
+  <si>
+    <t>테스나</t>
+  </si>
+  <si>
+    <t>TCC스틸</t>
+  </si>
+  <si>
+    <t>유아이디</t>
+  </si>
+  <si>
+    <t>팬젠</t>
+  </si>
+  <si>
+    <t>지노믹트리</t>
+  </si>
+  <si>
+    <t>STX엔진</t>
+  </si>
+  <si>
+    <t>신원</t>
+  </si>
+  <si>
+    <t>ARIRANG 심천차이넥스트(합성)</t>
+  </si>
+  <si>
+    <t>디오</t>
+  </si>
+  <si>
+    <t>화승알앤에이</t>
+  </si>
+  <si>
+    <t>미래에셋대우</t>
+  </si>
+  <si>
+    <t>켐온</t>
+  </si>
+  <si>
+    <t>케이피엠테크</t>
+  </si>
+  <si>
+    <t>젠큐릭스</t>
+  </si>
+  <si>
+    <t>우원개발</t>
+  </si>
+  <si>
+    <t>한국주강</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>이엑스티</t>
+  </si>
+  <si>
+    <t>동아에스티</t>
+  </si>
+  <si>
+    <t>KINDEX 미국다우존스리츠(합성 H)</t>
+  </si>
+  <si>
+    <t>오션브릿지</t>
+  </si>
+  <si>
+    <t>우리들휴브레인</t>
+  </si>
+  <si>
+    <t>젬백스</t>
+  </si>
+  <si>
+    <t>에스엠코어</t>
+  </si>
+  <si>
+    <t>우노앤컴퍼니</t>
+  </si>
+  <si>
+    <t>포메탈</t>
+  </si>
+  <si>
+    <t>푸른기술</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
   </si>
   <si>
     <t>대우건설</t>
   </si>
   <si>
+    <t>하이즈항공</t>
+  </si>
+  <si>
+    <t>자연과환경</t>
+  </si>
+  <si>
+    <t>LG화학</t>
+  </si>
+  <si>
+    <t>원풍물산</t>
+  </si>
+  <si>
+    <t>제주은행</t>
+  </si>
+  <si>
+    <t>지니언스</t>
+  </si>
+  <si>
+    <t>넷마블</t>
+  </si>
+  <si>
+    <t>씨젠</t>
+  </si>
+  <si>
+    <t>신신제약</t>
+  </si>
+  <si>
+    <t>대아티아이</t>
+  </si>
+  <si>
+    <t>상상인증권</t>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>영흥철강</t>
+  </si>
+  <si>
+    <t>SK케미칼</t>
+  </si>
+  <si>
+    <t>서진시스템</t>
+  </si>
+  <si>
+    <t>에이치엘비</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>티앤알바이오팹</t>
+  </si>
+  <si>
+    <t>조이시티</t>
+  </si>
+  <si>
+    <t>아이티센</t>
+  </si>
+  <si>
+    <t>동화약품</t>
+  </si>
+  <si>
+    <t>한화손해보험</t>
+  </si>
+  <si>
+    <t>유수홀딩스</t>
+  </si>
+  <si>
+    <t>한국주철관</t>
+  </si>
+  <si>
+    <t>국보</t>
+  </si>
+  <si>
+    <t>금호전기</t>
+  </si>
+  <si>
+    <t>현대차증권</t>
+  </si>
+  <si>
+    <t>한일철강</t>
+  </si>
+  <si>
+    <t>동일제강</t>
+  </si>
+  <si>
+    <t>대유플러스</t>
+  </si>
+  <si>
+    <t>선창산업</t>
+  </si>
+  <si>
+    <t>롯데손해보험</t>
+  </si>
+  <si>
+    <t>로보티즈</t>
+  </si>
+  <si>
+    <t>대유에이텍</t>
+  </si>
+  <si>
+    <t>유니온</t>
+  </si>
+  <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
+    <t>현대제철</t>
+  </si>
+  <si>
+    <t>태양금속</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>SG충방</t>
+  </si>
+  <si>
+    <t>알루코</t>
+  </si>
+  <si>
+    <t>화성산업</t>
+  </si>
+  <si>
+    <t>신풍제지</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>버추얼텍</t>
+  </si>
+  <si>
+    <t>혜인</t>
+  </si>
+  <si>
     <t>한화투자증권</t>
   </si>
   <si>
-    <t>DB하이텍</t>
-  </si>
-  <si>
-    <t>TIGER 미국달러선물인버스2X</t>
-  </si>
-  <si>
-    <t>보해양조</t>
-  </si>
-  <si>
-    <t>시그넷이브이</t>
+    <t>SG세계물산</t>
+  </si>
+  <si>
+    <t>조광페인트</t>
+  </si>
+  <si>
+    <t>휴스틸</t>
+  </si>
+  <si>
+    <t>한신공영</t>
+  </si>
+  <si>
+    <t>크라운해태홀딩스</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>삼아알미늄</t>
+  </si>
+  <si>
+    <t>대림B&amp;Co</t>
+  </si>
+  <si>
+    <t>대원전선</t>
+  </si>
+  <si>
+    <t>휴니드</t>
+  </si>
+  <si>
+    <t>영풍제지</t>
+  </si>
+  <si>
+    <t>한국특수형강</t>
+  </si>
+  <si>
+    <t>한일현대시멘트</t>
+  </si>
+  <si>
+    <t>태평양물산</t>
+  </si>
+  <si>
+    <t>미래아이앤지</t>
+  </si>
+  <si>
+    <t>문배철강</t>
+  </si>
+  <si>
+    <t>코리아써키트</t>
+  </si>
+  <si>
+    <t>태영건설</t>
+  </si>
+  <si>
+    <t>NI스틸</t>
+  </si>
+  <si>
+    <t>우진아이엔에스</t>
+  </si>
+  <si>
+    <t>KCTC</t>
+  </si>
+  <si>
+    <t>KC그린홀딩스</t>
+  </si>
+  <si>
+    <t>진양폴리</t>
+  </si>
+  <si>
+    <t>평화홀딩스</t>
+  </si>
+  <si>
+    <t>에넥스</t>
+  </si>
+  <si>
+    <t>롯데케미칼</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>성안</t>
+  </si>
+  <si>
+    <t>메디포럼제약</t>
+  </si>
+  <si>
+    <t>한신기계</t>
+  </si>
+  <si>
+    <t>금호석유</t>
+  </si>
+  <si>
+    <t>계양전기</t>
+  </si>
+  <si>
+    <t>일성건설</t>
+  </si>
+  <si>
+    <t>한온시스템</t>
+  </si>
+  <si>
+    <t>성문전자</t>
+  </si>
+  <si>
+    <t>디와이</t>
+  </si>
+  <si>
+    <t>풀무원</t>
+  </si>
+  <si>
+    <t>금강공업</t>
+  </si>
+  <si>
+    <t>동원금속</t>
+  </si>
+  <si>
+    <t>태경산업</t>
+  </si>
+  <si>
+    <t>키다리스튜디오</t>
+  </si>
+  <si>
+    <t>조일알미늄</t>
+  </si>
+  <si>
+    <t>인지컨트롤스</t>
+  </si>
+  <si>
+    <t>세아특수강</t>
+  </si>
+  <si>
+    <t>에쓰씨엔지니어링</t>
+  </si>
+  <si>
+    <t>삼원강재</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>WISCOM</t>
+  </si>
+  <si>
+    <t>제이준코스메틱</t>
+  </si>
+  <si>
+    <t>대원화성</t>
+  </si>
+  <si>
+    <t>교보증권</t>
+  </si>
+  <si>
+    <t>세하</t>
   </si>
   <si>
     <t>휴마시스</t>
   </si>
   <si>
-    <t>우리기술</t>
+    <t>유니온머티리얼</t>
+  </si>
+  <si>
+    <t>황금에스티</t>
+  </si>
+  <si>
+    <t>테이팩스</t>
+  </si>
+  <si>
+    <t>세이브존I&amp;C</t>
+  </si>
+  <si>
+    <t>한세엠케이</t>
+  </si>
+  <si>
+    <t>DSR제강</t>
+  </si>
+  <si>
+    <t>STX중공업</t>
+  </si>
+  <si>
+    <t>현대리바트</t>
+  </si>
+  <si>
+    <t>대한제강</t>
+  </si>
+  <si>
+    <t>디아이씨</t>
+  </si>
+  <si>
+    <t>기신정기</t>
+  </si>
+  <si>
+    <t>일진전기</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>엔에스쇼핑</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>서연이화</t>
+  </si>
+  <si>
+    <t>에이블씨엔씨</t>
+  </si>
+  <si>
+    <t>대상홀딩스</t>
+  </si>
+  <si>
+    <t>티웨이항공</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
+    <t>금호에이치티</t>
+  </si>
+  <si>
+    <t>SBS미디어홀딩스</t>
+  </si>
+  <si>
+    <t>락앤락</t>
+  </si>
+  <si>
+    <t>인터지스</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>화승엔터프라이즈</t>
+  </si>
+  <si>
+    <t>애경유화</t>
+  </si>
+  <si>
+    <t>에이스토리</t>
+  </si>
+  <si>
+    <t>디와이파워</t>
+  </si>
+  <si>
+    <t>토니모리</t>
+  </si>
+  <si>
+    <t>경동도시가스</t>
+  </si>
+  <si>
+    <t>크라운제과</t>
+  </si>
+  <si>
+    <t>롯데정보통신</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>현대오토에버</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>일양약품</t>
+  </si>
+  <si>
+    <t>슈프리마에이치큐</t>
+  </si>
+  <si>
+    <t>윈스</t>
+  </si>
+  <si>
+    <t>신한알파리츠</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>유진투자증권</t>
+  </si>
+  <si>
+    <t>만도</t>
+  </si>
+  <si>
+    <t>베스파</t>
+  </si>
+  <si>
+    <t>케어젠</t>
+  </si>
+  <si>
+    <t>쎌마테라퓨틱스</t>
+  </si>
+  <si>
+    <t>오스템</t>
+  </si>
+  <si>
+    <t>한성기업</t>
+  </si>
+  <si>
+    <t>S&amp;T홀딩스</t>
+  </si>
+  <si>
+    <t>화천기계</t>
+  </si>
+  <si>
+    <t>대주산업</t>
+  </si>
+  <si>
+    <t>브이티지엠피</t>
+  </si>
+  <si>
+    <t>대양전기공업</t>
+  </si>
+  <si>
+    <t>필룩스</t>
+  </si>
+  <si>
+    <t>이베스트이안스팩1호</t>
+  </si>
+  <si>
+    <t>모다이노칩</t>
+  </si>
+  <si>
+    <t>엠아이텍</t>
+  </si>
+  <si>
+    <t>에스퓨얼셀</t>
+  </si>
+  <si>
+    <t>SK5호스팩</t>
+  </si>
+  <si>
+    <t>전진바이오팜</t>
   </si>
   <si>
     <t>엠젠플러스</t>
   </si>
   <si>
-    <t>유니드</t>
-  </si>
-  <si>
-    <t>화천기공</t>
-  </si>
-  <si>
-    <t>모나미</t>
-  </si>
-  <si>
-    <t>삼성화재우</t>
-  </si>
-  <si>
-    <t>한솔케미칼</t>
-  </si>
-  <si>
-    <t>한양이엔지</t>
-  </si>
-  <si>
-    <t>유수홀딩스</t>
-  </si>
-  <si>
-    <t>에이비온</t>
-  </si>
-  <si>
-    <t>동진쎄미켐</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>인콘</t>
-  </si>
-  <si>
-    <t>LG화학</t>
-  </si>
-  <si>
-    <t>한창</t>
-  </si>
-  <si>
-    <t>주연테크</t>
-  </si>
-  <si>
-    <t>에스엔텍</t>
-  </si>
-  <si>
-    <t>세화피앤씨</t>
-  </si>
-  <si>
-    <t>보령메디앙스</t>
-  </si>
-  <si>
-    <t>TIGER 구리실물</t>
-  </si>
-  <si>
-    <t>럭스피아</t>
-  </si>
-  <si>
-    <t>우리바이오</t>
-  </si>
-  <si>
-    <t>국순당</t>
-  </si>
-  <si>
-    <t>케이엠더블유</t>
-  </si>
-  <si>
-    <t>에이스테크</t>
-  </si>
-  <si>
-    <t>머큐리</t>
-  </si>
-  <si>
-    <t>오이솔루션</t>
-  </si>
-  <si>
-    <t>디케이티</t>
+    <t>한네트</t>
+  </si>
+  <si>
+    <t>좋은사람들</t>
+  </si>
+  <si>
+    <t>유니포인트</t>
+  </si>
+  <si>
+    <t>뉴프렉스</t>
+  </si>
+  <si>
+    <t>동양철관</t>
+  </si>
+  <si>
+    <t>엔에스엔</t>
+  </si>
+  <si>
+    <t>아이씨디</t>
+  </si>
+  <si>
+    <t>대우조선해양</t>
+  </si>
+  <si>
+    <t>국동</t>
+  </si>
+  <si>
+    <t>삼륭물산</t>
+  </si>
+  <si>
+    <t>안트로젠</t>
+  </si>
+  <si>
+    <t>크루셜텍</t>
+  </si>
+  <si>
+    <t>휴림로봇</t>
+  </si>
+  <si>
+    <t>창해에탄올</t>
+  </si>
+  <si>
+    <t>홈캐스트</t>
+  </si>
+  <si>
+    <t>장원테크</t>
+  </si>
+  <si>
+    <t>마이크로텍</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>감마누</t>
+  </si>
+  <si>
+    <t>신세계건설</t>
+  </si>
+  <si>
+    <t>범양건영</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>코디엠</t>
+  </si>
+  <si>
+    <t>이랜텍</t>
+  </si>
+  <si>
+    <t>흥국 S&amp;P코리아로우볼</t>
+  </si>
+  <si>
+    <t>피노텍</t>
+  </si>
+  <si>
+    <t>동남합성</t>
+  </si>
+  <si>
+    <t>코스모화학</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>그린플러스</t>
+  </si>
+  <si>
+    <t>체리부로</t>
+  </si>
+  <si>
+    <t>인트로메딕</t>
+  </si>
+  <si>
+    <t>이에스브이</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>한진</t>
+  </si>
+  <si>
+    <t>미원홀딩스</t>
+  </si>
+  <si>
+    <t>미스터블루</t>
+  </si>
+  <si>
+    <t>다산네트웍스</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>알리코제약</t>
+  </si>
+  <si>
+    <t>애니젠</t>
+  </si>
+  <si>
+    <t>HDC아이콘트롤스</t>
+  </si>
+  <si>
+    <t>미래에셋생명</t>
+  </si>
+  <si>
+    <t>이구산업</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>HB테크놀러지</t>
+  </si>
+  <si>
+    <t>동성화학</t>
+  </si>
+  <si>
+    <t>파워넷</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>YBM넷</t>
+  </si>
+  <si>
+    <t>뉴인텍</t>
+  </si>
+  <si>
+    <t>동성코퍼레이션</t>
+  </si>
+  <si>
+    <t>더블유에프엠</t>
+  </si>
+  <si>
+    <t>피에스텍</t>
+  </si>
+  <si>
+    <t>다나와</t>
+  </si>
+  <si>
+    <t>한국조선해양</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>위즈코프</t>
+  </si>
+  <si>
+    <t>수산중공업</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>KODEX 일본TOPIX100</t>
+  </si>
+  <si>
+    <t>나라소프트</t>
+  </si>
+  <si>
+    <t>다이오진</t>
+  </si>
+  <si>
+    <t>디케이락</t>
+  </si>
+  <si>
+    <t>에스텍파마</t>
+  </si>
+  <si>
+    <t>새론오토모티브</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>국일신동</t>
+  </si>
+  <si>
+    <t>알티캐스트</t>
+  </si>
+  <si>
+    <t>한송네오텍</t>
+  </si>
+  <si>
+    <t>오리콤</t>
+  </si>
+  <si>
+    <t>큐브앤컴퍼니</t>
+  </si>
+  <si>
+    <t>바이오니아</t>
+  </si>
+  <si>
+    <t>휴젤</t>
+  </si>
+  <si>
+    <t>에코플라스틱</t>
+  </si>
+  <si>
+    <t>HDC현대산업개발</t>
+  </si>
+  <si>
+    <t>디앤씨미디어</t>
+  </si>
+  <si>
+    <t>리더스 기술투자</t>
+  </si>
+  <si>
+    <t>아이스크림에듀</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>케이씨피드</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>DGB금융지주</t>
+  </si>
+  <si>
+    <t>신송홀딩스</t>
+  </si>
+  <si>
+    <t>드래곤플라이</t>
+  </si>
+  <si>
+    <t>슈펙스비앤피</t>
+  </si>
+  <si>
+    <t>미코</t>
+  </si>
+  <si>
+    <t>가비아</t>
+  </si>
+  <si>
+    <t>이수앱지스</t>
+  </si>
+  <si>
+    <t>유바이오로직스</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>동부건설</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>진흥기업</t>
-  </si>
-  <si>
-    <t>기아차</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>현대위아</t>
-  </si>
-  <si>
-    <t>LG전자</t>
-  </si>
-  <si>
-    <t>옵트론텍</t>
-  </si>
-  <si>
-    <t>SIMPAC</t>
-  </si>
-  <si>
-    <t>KBSTAR 200</t>
-  </si>
-  <si>
-    <t>스카이문스테크놀로지</t>
-  </si>
-  <si>
-    <t>[취소]최근5일매물대돌파</t>
-  </si>
-  <si>
-    <t>[취소]캔들패턴-하락반전형</t>
-  </si>
-  <si>
-    <t>삼선전환도-양전환</t>
-  </si>
-  <si>
-    <t>[취소]RSI(14) 매도-Signal(9) 하향돌파</t>
-  </si>
-  <si>
-    <t>[취소]주가 5MA 하향돌파</t>
-  </si>
-  <si>
-    <t>최근5일매물대돌파</t>
-  </si>
-  <si>
-    <t>한화證 "CERCG ABCP 발행 실무자 금전수수 혐의…경찰조사 협조할 것"</t>
-  </si>
-  <si>
-    <t>삼선전환도-음전환</t>
-  </si>
-  <si>
-    <t>Momentum 매도-기준선(100) 하향돌파</t>
-  </si>
-  <si>
-    <t>RSI(14) 매수-Signal(9) 상향돌파</t>
-  </si>
-  <si>
-    <t>[취소]MACD 매도-Signal(9) 하향돌파</t>
-  </si>
-  <si>
-    <t>[취소]RSI(14) 매수-Signal(9) 상향돌파</t>
-  </si>
-  <si>
-    <t>주가 5MA 상향돌파</t>
-  </si>
-  <si>
-    <t>전일거래량갱신</t>
-  </si>
-  <si>
-    <t>Stochastic(10,5,5)매도- %K%D 교차</t>
-  </si>
-  <si>
-    <t>[취소]캔들패턴-상승반전형</t>
-  </si>
-  <si>
-    <t>[취소]Sonar 매도-Signal(9) 하향돌파</t>
-  </si>
-  <si>
-    <t>[취소]MACD 매수-Signal(9) 상향돌파</t>
-  </si>
-  <si>
-    <t>[취소]주가 5MA 상향돌파</t>
-  </si>
-  <si>
-    <t>Momentum 매수-기준선(100) 상향돌파</t>
-  </si>
-  <si>
-    <t>주가 5MA 하향돌파</t>
-  </si>
-  <si>
-    <t>LG화학·SK이노, 이차전지 영업비밀 침해 의혹 관련 국내 법원서도 격돌</t>
-  </si>
-  <si>
-    <t>[취소]삼선전환도-양전환</t>
-  </si>
-  <si>
-    <t>거래량 5MA 상향돌파</t>
-  </si>
-  <si>
-    <t>캔들패턴-하락반전형</t>
-  </si>
-  <si>
-    <t>Sonar 매수-Signal(9) 상향돌파</t>
-  </si>
-  <si>
-    <t>최근5일신고가갱신</t>
-  </si>
-  <si>
-    <t>[취소]Sonar 매수-Signal(9) 상향돌파</t>
-  </si>
-  <si>
-    <t>[돈 잘 버는 증권맨에게 듣는다] 5G 관련주, 추가 상승여력 남아있는 종목 찾아야…머</t>
-  </si>
-  <si>
-    <t>한국가스공사, 청정 제주에 특화된 LNG터미널 10월 준공</t>
-  </si>
-  <si>
-    <t>시민단체, 효성 등 입찰담합 혐의로 공정위 신고</t>
-  </si>
-  <si>
-    <t>[부자들은 경제신문을 읽는다] 갤럭시 폴드·노트10 출시 기대감…부품株 파트론·옵?</t>
-  </si>
-  <si>
-    <t>'SIMPAC' 5% 이상 상승, 전일 종가 기준 PER 2.9배, PBR 0.5배, 저PER</t>
-  </si>
-  <si>
-    <t>외국계증권사 창구 첫 매수 포착</t>
-  </si>
-  <si>
-    <t>SIMPAC, 상승출발 후 꾸준히 올라 8.52%↑... 이평선 안정적 상승추세 이어져</t>
-  </si>
-  <si>
-    <t>&lt;유&gt;SIMPAC, 전일 대비 8.20% 상승.. 일일회전율은 1.64% 기록</t>
-  </si>
-  <si>
-    <t>스카이문스테크놀로지, 16억 규모 RF중계기 공급계약</t>
+    <t>레이</t>
+  </si>
+  <si>
+    <t>현대중공업지주</t>
+  </si>
+  <si>
+    <t>POSCO</t>
+  </si>
+  <si>
+    <t>(주)남영비비안 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>[IRFOCUS] 정기주주총회 개최 및 참여안내</t>
+  </si>
+  <si>
+    <t>[시그널] 무디스 “저금리 지속··· 한화생명·손보 신용등급 하향 검토”</t>
+  </si>
+  <si>
+    <t>S&amp;TC, 50억원 규모 자사주 취득 신탁계약 체결 결정</t>
+  </si>
+  <si>
+    <t>(주)드림티엔터테인먼트 주주총회소집 결의</t>
+  </si>
+  <si>
+    <t>美연준 '제로금리'에도 국내금융시장 '출렁'…주가↓·환율↑(종합)</t>
+  </si>
+  <si>
+    <t>(주)디에이테크놀로지 전환가액의조정(제5회차CB)</t>
+  </si>
+  <si>
+    <t>(주)디바이스이엔지 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>동아쏘시오홀딩스(주) 감사보고서 제출(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>(주)데이터스트림즈 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>한화생명, 여승주 사장 보통주 3만주 장내매수</t>
+  </si>
+  <si>
+    <t>(주)테스나 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)TCC스틸 조회공시 요구(현저한 시황변동)</t>
+  </si>
+  <si>
+    <t>(주)유아이디 기타시장안내(상장적격성 실질심사 관련)</t>
+  </si>
+  <si>
+    <t>팬젠, 말레이시아 국영제약사와 9억원 빈혈치료제 공급계약</t>
+  </si>
+  <si>
+    <t>(주)지노믹트리 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)유아이디 주권매매거래정지기간변경(상장적격성 실질심사 대상 (사유발생))</t>
+  </si>
+  <si>
+    <t>(주)신원 (예고)단기과열종목(10거래일 단일가매매) 지정예고(신원우)</t>
+  </si>
+  <si>
+    <t>한화 ARIRANG 심천차이넥스트증권상장지수투자신탁(주식-파생형)(합성) ETF기타시장안</t>
+  </si>
+  <si>
+    <t>유튜브, 코로나19 영상 광고 허용 '논란'</t>
+  </si>
+  <si>
+    <t>미래에셋대우, 싱가포르 주식 온라인 매매서비스 오픈</t>
+  </si>
+  <si>
+    <t>(주)유아이디 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)켐온 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)케이피엠테크 전환청구권행사(제7회차)</t>
+  </si>
+  <si>
+    <t>세계가 주목한 한국산 코로나19 진단키트…러브콜 쏟아진다</t>
+  </si>
+  <si>
+    <t>우원개발(주) (정정)단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>특별재난지역된 대구...이통3사 콜센서도 잠정폐쇄</t>
+  </si>
+  <si>
+    <t>에스지에이(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>이엑스티(주) 전환가액의조정(제3회차)</t>
+  </si>
+  <si>
+    <t>동아에스티(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>유럽 주가지수선물, 4% 급락...'코로나19 경제 충격' 공포 지속</t>
+  </si>
+  <si>
+    <t>오션브릿지(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)젬백스&amp;카엘 추가상장(국내사모 CB전환)</t>
+  </si>
+  <si>
+    <t>(주)에스엠코어 (정정)단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>(주)우노앤컴퍼니 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)포메탈 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)푸른기술 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>삼성전자, 1년만에 목표주가 하향…SK하이닉스에 밀려</t>
+  </si>
+  <si>
+    <t>하이즈항공(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[집중! 시세포착!] 농촌지역 도시재생 투자 수혜주 '자연과환경'</t>
+  </si>
+  <si>
+    <t>(특징주)코로나 확산에 유럽 배터리 생산라인 우려…LG화학 8%대 급락</t>
+  </si>
+  <si>
+    <t>원풍물산(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>지니언스(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[리뷰] ‘A: 스틸얼라이브’, 배틀로얄 ‘차별화’에 결제 부담도 ‘덜었다’</t>
+  </si>
+  <si>
+    <t>기관 순매도 금액 상위 20선 - 코스닥</t>
+  </si>
+  <si>
+    <t>신신제약, 美 연방정부 보훈부 주계약자 선정</t>
+  </si>
+  <si>
+    <t>국내증시 3% 급락…각종 부양책에도 커지는 변동성</t>
+  </si>
+  <si>
+    <t>대아티아이(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>상상인증권, 지난해 4분기 영업이익 흑자전환 성공</t>
+  </si>
+  <si>
+    <t>외국인 순매수 금액 상위 20선 - 코스닥</t>
+  </si>
+  <si>
+    <t>외국인 순매수 금액 상위 20선 - 코스피</t>
+  </si>
+  <si>
+    <t>(주)STX (정정)주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>영흥철강(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>외국인 순매도 금액 상위 20선 - 코스피</t>
+  </si>
+  <si>
+    <t>기관 순매도 금액 상위 20선 - 코스피</t>
+  </si>
+  <si>
+    <t>기관 순매수 금액 상위 20선 - 코스닥</t>
+  </si>
+  <si>
+    <t>외국인 순매도 금액 상위 20선 - 코스닥</t>
+  </si>
+  <si>
+    <t>기관 순매수 금액 상위 20선 - 코스피</t>
+  </si>
+  <si>
+    <t>[BioS]티앤알바이오팹, "iPSC 심근세포로 약물 심장독성 평가"</t>
+  </si>
+  <si>
+    <t>“‘블레스 모바일’ 무과금도 즐긴다”…온라인 쇼케이스 ‘성료’</t>
+  </si>
+  <si>
+    <t>(주)아이티센 전환청구권행사</t>
+  </si>
+  <si>
+    <t>동화약품(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한화손해보험(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)유수홀딩스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한국주철관공업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)국보 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>금호전기(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>현대차증권(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한일철강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>동일제강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)대유플러스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>선창산업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>롯데손해보험(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>로보티즈, 김병수 대표 자사주 1만7200주 매수…“책임 경영 의지”</t>
+  </si>
+  <si>
+    <t>(주)대유에이텍 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)유니온 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>유안타증권(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>현대제철(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>태양금속공업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(태양금속우)</t>
+  </si>
+  <si>
+    <t>CJ(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(CJ4우(전환))</t>
+  </si>
+  <si>
+    <t>(주)에스지충방 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)알루코 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>화성산업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)TCC스틸 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>신풍제지(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)버추얼텍 (정정)감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)혜인 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한화투자증권(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)SG세계물산 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>조광페인트(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)휴스틸 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한신공영(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)크라운해태홀딩스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>현대자동차(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(현대차우)</t>
+  </si>
+  <si>
+    <t>삼아알미늄(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>대림비앤코(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>대원전선(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(대원전선우)</t>
+  </si>
+  <si>
+    <t>(주)휴니드테크놀러지스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>영풍제지(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)제주은행 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한국특수형강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한일현대시멘트(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>태평양물산(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)미래아이앤지 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>문배철강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)코리아써키트 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)태영건설 [투자주의]소수지점ㆍ소수계좌 거래집중 종목(태영건설우)</t>
+  </si>
+  <si>
+    <t>(주)NI스틸 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)우진아이엔에스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)케이씨티시 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>케이씨그린홀딩스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>진양폴리우레탄(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>평화홀딩스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)에넥스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>롯데케미칼(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>현대위아(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)성안 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>16일 개인신용대출 Best 10 캐피탈, 보험, 카드 상품</t>
+  </si>
+  <si>
+    <t>한신기계공업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>금호석유화학(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(금호석유우)</t>
+  </si>
+  <si>
+    <t>(주)화승알앤에이 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>계양전기(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목(계양전기우)</t>
+  </si>
+  <si>
+    <t>계룡건설산업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>일성건설(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>[마감] 글로벌 정책공조 압도하는 코로나19 공포…코스피 3%↓</t>
+  </si>
+  <si>
+    <t>성문전자(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>디와이(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)풀무원 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>금강공업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>동원금속(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>태경산업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)키다리스튜디오 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>조일알미늄(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>인지컨트롤스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)세아특수강 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>에쓰씨엔지니어링(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)삼원강재 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>중소기업은행 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)WISCOM [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>제이준코스메틱(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>대원화성(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>교보증권(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>세하(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>[오늘의 매매동향] 코스닥</t>
+  </si>
+  <si>
+    <t>유니온머티리얼(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)황금에스티 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)테이팩스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)LG화학 [투자주의]소수지점ㆍ소수계좌 거래집중 종목(LG화학우)</t>
+  </si>
+  <si>
+    <t>(주)세이브존아이앤씨 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>한세엠케이(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>DSR제강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>STX중공업(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)현대리바트 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>대한제강(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)디아이씨 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>기신정기(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)S&amp;TC [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>일진전기(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)에스제이엠 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)엔에스쇼핑 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>DSR(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)서연이화 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)에이블씨엔씨 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>대상홀딩스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)티웨이항공 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>SK이노베이션(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)금호에이치티 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>SBS미디어홀딩스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)락앤락 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>인터지스(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)BNK금융지주 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>주식회사 화승엔터프라이즈 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>애경유화(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>[종목이슈] 에이스토리, 킹덤2 흥행 불구 주가는 '지지부진'</t>
+  </si>
+  <si>
+    <t>디와이파워(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)토니모리 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)경동도시가스 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>(주)크라운제과 [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>롯데정보통신(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>효성티앤씨(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>현대오토에버(주) [투자주의]소수지점ㆍ소수계좌 거래집중 종목</t>
+  </si>
+  <si>
+    <t>세방전지(주) [투자주의]종가급변 종목</t>
+  </si>
+  <si>
+    <t>일양약품(주) [투자주의]투자경고종목 지정예고</t>
+  </si>
+  <si>
+    <t>[오늘의 매매동향] 코스피</t>
+  </si>
+  <si>
+    <t>(주)슈프리마에이치큐 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>보안업계, 코로나19 확산에 최대 수출국 日 여파 우려</t>
+  </si>
+  <si>
+    <t>(주)신한알파위탁관리부동산투자회사 주식명의개서정지(주주명부폐쇄)</t>
+  </si>
+  <si>
+    <t>유진투자증권(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[주식 고민 해결! 스탁 솔루션] '만도, 네오팜' 전화·문자·노란톡 상담 外</t>
+  </si>
+  <si>
+    <t>'코로나19 팬데믹' ELS 원금손실 가능성 대두…파생대란 오나</t>
+  </si>
+  <si>
+    <t>(주)베스파 (정정)주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)케어젠 (정정)단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>[마켓뷰] 美 부양책에도 코스피 3% 넘게 하락</t>
+  </si>
+  <si>
+    <t>(주)오스템 기타 경영사항(자율공시)(감사보고서 제출 지연)</t>
+  </si>
+  <si>
+    <t>팬젠, 8억원 규모 바이오시밀러 빈혈치료제 공급계약</t>
+  </si>
+  <si>
+    <t>한성기업, 3회차 CB 전환가액 조정</t>
+  </si>
+  <si>
+    <t>(주)S&amp;T홀딩스 자기주식취득 신탁계약 체결 결정(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>화천기계(주) 자기주식 취득 결정</t>
+  </si>
+  <si>
+    <t>대주산업(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)브이티지엠피 전환가액의조정(제28회차)</t>
+  </si>
+  <si>
+    <t>대양전기공업(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)필룩스 유상증자결정</t>
+  </si>
+  <si>
+    <t>이베스트이안기업인수목적1호 주식회사 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)모다이노칩 (정정)주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)엠아이텍 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>에스퓨얼셀(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)STX (정정)주주총회소집결의</t>
+  </si>
+  <si>
+    <t>에스케이제5호기업인수목적 주식회사 (정정)감사보고서 제출</t>
+  </si>
+  <si>
+    <t>전진바이오팜(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>엠젠플러스 대표이사 심영복→송연호 변경</t>
+  </si>
+  <si>
+    <t>(주)한네트 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>좋은사람들, 경북도에 5억원 상당 살균소독제 기증</t>
+  </si>
+  <si>
+    <t>(주)유니포인트 주주총회소집 결의</t>
+  </si>
+  <si>
+    <t>(주)뉴프렉스 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>동양철관(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)엔에스엔 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>아이씨디, 최지광 사외이사 중도퇴임</t>
+  </si>
+  <si>
+    <t>국동, 사내·사외이사·감사 총 5명 선임</t>
+  </si>
+  <si>
+    <t>[한경_데이터] 3/16 코스닥시장 하락률 상위 10개 종목</t>
+  </si>
+  <si>
+    <t>안트로젠, 중간엽줄기세포 조성물 관련 특허 취득</t>
+  </si>
+  <si>
+    <t>크루셜트랙, 코로나19 확산으로 비접촉 보안 솔루션 주문 증가</t>
+  </si>
+  <si>
+    <t>휴림로봇(주) (정정)타법인 주식 및 출자증권 양도결정</t>
+  </si>
+  <si>
+    <t>(주)창해에탄올 기타 경영사항(자율공시)(감사보고서 제출 지연)</t>
+  </si>
+  <si>
+    <t>(주)홈캐스트 (정정)매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>(주)장원테크 유상증자결정(제3자배정)</t>
+  </si>
+  <si>
+    <t>(주)마이크로텍 전환가액의조정(제4회,제5회 및 제7회차)</t>
+  </si>
+  <si>
+    <t>[머니Tips] 삼성증권, 연 8.6% 추구 온라인 전용 ELS 공모</t>
+  </si>
+  <si>
+    <t>(주)감마누 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>신세계건설(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>범양건영(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>美 금리인하로 DLF 손실 확대···하나·우리은행 4500억 판매</t>
+  </si>
+  <si>
+    <t>(주)S&amp;TC 자기주식취득 신탁계약 체결 결정</t>
+  </si>
+  <si>
+    <t>팬젠. 9억 원 규모 바이오시밀러 빈혈치료제 공급계약</t>
+  </si>
+  <si>
+    <t>(주)코디엠 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>삼성전자 "폐플라스틱 1병으로 갤S20+ 케이스 2개 제작"</t>
+  </si>
+  <si>
+    <t>"삼성전자 지금사요?"…저금리에 늘어난 '주식뉴비'</t>
+  </si>
+  <si>
+    <t>(주)이랜텍 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>흥국 S&amp;P로우볼증권상장지수투자신탁(주식) ETF기타시장안내</t>
+  </si>
+  <si>
+    <t>자금줄 마르는 기업들…증자 미루고 상장 철회</t>
+  </si>
+  <si>
+    <t>피노텍 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>코스모화학(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)LG 감사보고서 제출(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>주식회사 그린플러스 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)체리부로 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)인트로메딕 추가상장(국내사모 CB전환)</t>
+  </si>
+  <si>
+    <t>(주)이에스브이 추가상장(국내사모 CB전환)</t>
+  </si>
+  <si>
+    <t>삼성증권, 최대 세전 연 8.6% 추구 온라인 전용 ELS 모집</t>
+  </si>
+  <si>
+    <t>반도건설 '허위공시' 논란 불거져...한진칼 지분 3.28% 효력 상실?</t>
+  </si>
+  <si>
+    <t>혜인, 엔진발전기 사업부문 276억 규모 계약 체결</t>
+  </si>
+  <si>
+    <t>미스터블루(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)다산네트웍스 (정정)최대주주 변경을 수반하는 주식 담보제공 계약 체결</t>
+  </si>
+  <si>
+    <t>'백약이 무효'…코스피, 또 3.2% 급락 마감(종합)</t>
+  </si>
+  <si>
+    <t>LG전자(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>2월 코픽스 일제히 하락…주담대 변동금리 떨어진다</t>
+  </si>
+  <si>
+    <t>[한경_데이터] 3/16 코스닥시장 상승률 상위 10개 종목</t>
+  </si>
+  <si>
+    <t>애니젠(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>코로나19 공포 휩싸인 유럽…전기차 배터리 성장 제동 '우려'</t>
+  </si>
+  <si>
+    <t>(주)모다이노칩 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>에이치디씨아이콘트롤스(주) 자기주식 취득 결정</t>
+  </si>
+  <si>
+    <t>이구산업(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>에이치엘비 "리보세라닙, 中 폐암 1차 치료제 임상 3상 승인"</t>
+  </si>
+  <si>
+    <t>미래에셋대우(주) [ELW 투자주의]소수지점ㆍ소수계좌 거래집중 종목(미래EJ00삼성전자</t>
+  </si>
+  <si>
+    <t>엔에이치투자증권(주) [ELW 투자주의]소수지점ㆍ소수계좌 거래집중 종목(NHEB33KOSPI2</t>
+  </si>
+  <si>
+    <t>미래에셋대우(주) [ELW 투자주의]소수지점ㆍ소수계좌 거래집중 종목(미래ED31셀트리온</t>
+  </si>
+  <si>
+    <t>엔에이치투자증권(주) [ELW 투자주의]소수지점ㆍ소수계좌 거래집중 종목(NHEB34KOSPI2</t>
+  </si>
+  <si>
+    <t>(주)에이치비테크놀러지 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>주식회사 파워넷 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)티피씨메카트로닉스 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[골드이슈] 장마감 기준 52주 신고가 종목</t>
+  </si>
+  <si>
+    <t>(주)뉴인텍 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)코디엠 (정정)유상증자결정(제3자배정)</t>
+  </si>
+  <si>
+    <t>미 금리인하에도 추락…3거래일 연속 -3%대</t>
+  </si>
+  <si>
+    <t>팬젠, 바이오시밀러 말레이시아 국영제약사에 9억규모 빈혈치료제 공급 계약</t>
+  </si>
+  <si>
+    <t>[코스피 마감]부진한 中지표에 3%대 하락…1710도 위험</t>
+  </si>
+  <si>
+    <t>(주)더블유에프엠 소송등의제기ㆍ신청(일정금액 이상의 청구)</t>
+  </si>
+  <si>
+    <t>피에스텍(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>LG 스타일러, 영국 프리미엄 백화점 입점</t>
+  </si>
+  <si>
+    <t>백약이 무효한 한국 증시…美 '빅컷'·공매도 금지에도 3% 곤두박질</t>
+  </si>
+  <si>
+    <t>(주)다나와 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>현대重 노조, 20일 부분파업…회사 "코로나19로 경영계획 재검토해야"</t>
+  </si>
+  <si>
+    <t>롯데정밀화학(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>위즈코프(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>LG CNS, 지난해 실패 딛고 올해 첫 대형 공공사업 수주할까</t>
+  </si>
+  <si>
+    <t>[김준형의 오토 인사이드] 새 차보다 비싼 중고차 있었네</t>
+  </si>
+  <si>
+    <t>[종합] BOJ, ETF 매입 확대 등 추가 금융완화 결정...주가는 하락</t>
+  </si>
+  <si>
+    <t>[코로나19] "트럼프, 獨 기업 백신 독점권 확보 시도"...獨 정부 '반발'</t>
+  </si>
+  <si>
+    <t>[한경_데이터] 3/16 코스피시장 하락률 상위 10개 종목</t>
+  </si>
+  <si>
+    <t>(주)나라소프트 [투자주의]종가급변 종목</t>
+  </si>
+  <si>
+    <t>(주)다이오진 [투자주의]15일간 상승종목의 당일 소수계좌 매수관여 과다종목</t>
+  </si>
+  <si>
+    <t>LG, SK서 분사한 AI 스타트업에 투자… 디지털 전환 속도</t>
+  </si>
+  <si>
+    <t>[코스닥 마감]美 코로나19 대응책에도 3%대 하락…500선 턱걸이</t>
+  </si>
+  <si>
+    <t>이구산업(주) (정정)매출액또는손익구조30%(대규모법인은15%)이상변경</t>
+  </si>
+  <si>
+    <t>Volume Oscillator 매수-Signal(9) 상향돌파</t>
+  </si>
+  <si>
+    <t>(주)에스텍파마 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[르포] 오랜 만에 주말 나들이…카페 '웃고' 편의점·쇼핑몰 '울상'</t>
+  </si>
+  <si>
+    <t>국일신동(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)알티캐스트 (정정)주주총회소집결의</t>
+  </si>
+  <si>
+    <t>에스케이제5호기업인수목적 주식회사 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)한송네오텍 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)오리콤 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)큐브앤컴퍼니 (정정)매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>바이오니아·수젠텍 上..코로나19 진단 기술 각광</t>
+  </si>
+  <si>
+    <t>코스피, 美 부양책에도 3%대 급락 1700선 위태… 코스닥 500선 붕괴 코앞</t>
+  </si>
+  <si>
+    <t>에코플라스틱(주) 기타 경영사항(자율공시)(감사보고서 제출 지연)</t>
+  </si>
+  <si>
+    <t>(주)안트로젠 기타 경영사항(특허권 취득)(자율공시)(건 또는 인대 손상 치유를 위한</t>
+  </si>
+  <si>
+    <t>주식회사 디앤씨미디어 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)리더스 기술투자 신주인수권증권 변경상장(신주인수권행사)</t>
+  </si>
+  <si>
+    <t>(주)리더스 기술투자 추가상장(제9회차BW행사)</t>
+  </si>
+  <si>
+    <t>한화투자증권(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)모다이노칩 (정정)매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>(주)아이스크림에듀 (정정)매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>”선물 못받았다고요? 코로나19 때문이예요” 편의점, 화이트데이 매출 ‘주춤’</t>
+  </si>
+  <si>
+    <t>김병수 로보티즈 대표이사, 자사주 매수…"책임 경영 의지 표명"</t>
+  </si>
+  <si>
+    <t>(주)아이스크림에듀 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)케이씨피드 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>SC제일은행 이익 목표 8.5% 낮춰...은행권 '실적 불안'</t>
+  </si>
+  <si>
+    <t>국동, 김민성 사외이사 신규 선임</t>
+  </si>
+  <si>
+    <t>신송홀딩스(주) 감사보고서 제출(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>(주)드래곤플라이 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[한경_데이터] 3/16 코스피시장 상승률 상위 10개 종목</t>
+  </si>
+  <si>
+    <t>삼성전자, 3년 만에 '정수기 냉장고' 판매 재개할 듯</t>
+  </si>
+  <si>
+    <t>한국가스공사(주) 영업(잠정)실적(공정공시)</t>
+  </si>
+  <si>
+    <t>[상장사 재무분석] 레이, 상장 첫해 실적ㆍ재무 안정성 두 마리 토끼 모두 잡아</t>
+  </si>
+  <si>
+    <t>코로나19 등 위기 상황에서…현대중공업 노조, 20일 부분파업 결의</t>
+  </si>
+  <si>
+    <t>'전남 첫 자이 아파트' 광양센트럴자이 5월 분양</t>
   </si>
 </sst>
 </file>
@@ -836,7 +3338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,13 +3366,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -881,13 +3383,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -895,16 +3397,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -915,13 +3417,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -929,16 +3431,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -946,16 +3448,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -963,16 +3465,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -980,16 +3482,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1000,13 +3502,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1014,16 +3516,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1031,16 +3533,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1048,16 +3550,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1065,16 +3567,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1082,16 +3584,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1099,16 +3601,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1116,16 +3618,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1133,16 +3635,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1150,16 +3652,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1167,16 +3669,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1184,16 +3686,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1201,16 +3703,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1218,16 +3720,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1235,16 +3737,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1252,16 +3754,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1269,16 +3771,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1289,13 +3791,13 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1303,16 +3805,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1320,16 +3822,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1337,16 +3839,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1354,16 +3856,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1371,16 +3873,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1388,16 +3890,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>392</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1405,16 +3907,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1422,16 +3924,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1439,16 +3941,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1456,16 +3958,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>396</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1473,16 +3975,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1490,16 +3992,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1507,16 +4009,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>399</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1524,16 +4026,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1541,16 +4043,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1558,16 +4060,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1578,13 +4080,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1595,13 +4097,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1612,13 +4114,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1626,16 +4128,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1643,16 +4145,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1660,16 +4162,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1677,16 +4179,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1694,16 +4196,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>410</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>706</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1711,16 +4213,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1728,16 +4230,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>412</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1745,16 +4247,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1762,16 +4264,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1779,16 +4281,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1796,16 +4298,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>415</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1813,16 +4315,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>713</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1830,16 +4332,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>714</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1847,16 +4349,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>715</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1864,16 +4366,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>716</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1881,16 +4383,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>419</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1898,16 +4400,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>403</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>717</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1915,16 +4417,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1932,16 +4434,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1949,16 +4451,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>421</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1966,16 +4468,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>422</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1983,16 +4485,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>423</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2000,16 +4502,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>424</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2017,16 +4519,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>425</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2034,16 +4536,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2051,16 +4553,4827 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>427</v>
+      </c>
+      <c r="E72" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>428</v>
+      </c>
+      <c r="E73" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E74" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>430</v>
+      </c>
+      <c r="E75" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" t="s">
+        <v>431</v>
+      </c>
+      <c r="E76" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>432</v>
+      </c>
+      <c r="E77" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" t="s">
+        <v>433</v>
+      </c>
+      <c r="E78" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
+        <v>434</v>
+      </c>
+      <c r="E79" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>436</v>
+      </c>
+      <c r="E81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>437</v>
+      </c>
+      <c r="E82" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" t="s">
+        <v>438</v>
+      </c>
+      <c r="E83" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
+        <v>439</v>
+      </c>
+      <c r="E84" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>440</v>
+      </c>
+      <c r="E85" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" t="s">
+        <v>441</v>
+      </c>
+      <c r="E86" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" t="s">
+        <v>442</v>
+      </c>
+      <c r="E87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" t="s">
+        <v>443</v>
+      </c>
+      <c r="E88" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>444</v>
+      </c>
+      <c r="E89" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" t="s">
+        <v>445</v>
+      </c>
+      <c r="E90" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" t="s">
+        <v>446</v>
+      </c>
+      <c r="E91" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" t="s">
+        <v>448</v>
+      </c>
+      <c r="E94" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" t="s">
+        <v>449</v>
+      </c>
+      <c r="E95" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" t="s">
+        <v>450</v>
+      </c>
+      <c r="E96" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" t="s">
+        <v>451</v>
+      </c>
+      <c r="E97" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" t="s">
+        <v>453</v>
+      </c>
+      <c r="E99" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" t="s">
+        <v>454</v>
+      </c>
+      <c r="E100" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" t="s">
+        <v>455</v>
+      </c>
+      <c r="E101" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
+        <v>457</v>
+      </c>
+      <c r="E103" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s">
+        <v>458</v>
+      </c>
+      <c r="E104" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" t="s">
+        <v>459</v>
+      </c>
+      <c r="E105" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" t="s">
+        <v>460</v>
+      </c>
+      <c r="E106" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>461</v>
+      </c>
+      <c r="E107" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" t="s">
+        <v>463</v>
+      </c>
+      <c r="E109" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" t="s">
+        <v>464</v>
+      </c>
+      <c r="E111" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
+        <v>465</v>
+      </c>
+      <c r="E112" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" t="s">
+        <v>466</v>
+      </c>
+      <c r="E113" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" t="s">
+        <v>467</v>
+      </c>
+      <c r="E114" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>468</v>
+      </c>
+      <c r="E115" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" t="s">
+        <v>469</v>
+      </c>
+      <c r="E116" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" t="s">
+        <v>470</v>
+      </c>
+      <c r="E117" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" t="s">
+        <v>471</v>
+      </c>
+      <c r="E118" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119" t="s">
+        <v>472</v>
+      </c>
+      <c r="E119" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" t="s">
+        <v>473</v>
+      </c>
+      <c r="E120" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121" t="s">
+        <v>474</v>
+      </c>
+      <c r="E121" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>175</v>
+      </c>
+      <c r="D122" t="s">
+        <v>475</v>
+      </c>
+      <c r="E122" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" t="s">
+        <v>476</v>
+      </c>
+      <c r="E123" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" t="s">
+        <v>477</v>
+      </c>
+      <c r="E124" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126" t="s">
+        <v>479</v>
+      </c>
+      <c r="E126" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" t="s">
+        <v>480</v>
+      </c>
+      <c r="E127" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" t="s">
+        <v>481</v>
+      </c>
+      <c r="E128" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>182</v>
+      </c>
+      <c r="D129" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>183</v>
+      </c>
+      <c r="D130" t="s">
+        <v>483</v>
+      </c>
+      <c r="E130" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E131" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" t="s">
+        <v>484</v>
+      </c>
+      <c r="E132" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" t="s">
+        <v>485</v>
+      </c>
+      <c r="E134" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" t="s">
+        <v>486</v>
+      </c>
+      <c r="E135" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" t="s">
+        <v>187</v>
+      </c>
+      <c r="D136" t="s">
+        <v>487</v>
+      </c>
+      <c r="E136" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" t="s">
+        <v>488</v>
+      </c>
+      <c r="E137" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" t="s">
+        <v>489</v>
+      </c>
+      <c r="E138" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" t="s">
+        <v>490</v>
+      </c>
+      <c r="E139" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" t="s">
+        <v>491</v>
+      </c>
+      <c r="E140" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" t="s">
+        <v>492</v>
+      </c>
+      <c r="E141" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" t="s">
+        <v>494</v>
+      </c>
+      <c r="E143" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D144" t="s">
+        <v>495</v>
+      </c>
+      <c r="E144" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" t="s">
+        <v>496</v>
+      </c>
+      <c r="E145" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" t="s">
+        <v>197</v>
+      </c>
+      <c r="D146" t="s">
+        <v>497</v>
+      </c>
+      <c r="E146" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" t="s">
+        <v>498</v>
+      </c>
+      <c r="E147" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" t="s">
+        <v>199</v>
+      </c>
+      <c r="D148" t="s">
+        <v>499</v>
+      </c>
+      <c r="E148" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" t="s">
+        <v>500</v>
+      </c>
+      <c r="E149" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>201</v>
+      </c>
+      <c r="D150" t="s">
+        <v>501</v>
+      </c>
+      <c r="E150" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>202</v>
+      </c>
+      <c r="D151" t="s">
+        <v>502</v>
+      </c>
+      <c r="E151" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" t="s">
+        <v>203</v>
+      </c>
+      <c r="D152" t="s">
+        <v>503</v>
+      </c>
+      <c r="E152" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" t="s">
+        <v>504</v>
+      </c>
+      <c r="E153" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
+        <v>205</v>
+      </c>
+      <c r="D154" t="s">
+        <v>505</v>
+      </c>
+      <c r="E154" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>206</v>
+      </c>
+      <c r="D155" t="s">
+        <v>506</v>
+      </c>
+      <c r="E155" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" t="s">
+        <v>507</v>
+      </c>
+      <c r="E156" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" t="s">
+        <v>208</v>
+      </c>
+      <c r="D157" t="s">
+        <v>508</v>
+      </c>
+      <c r="E157" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" t="s">
+        <v>407</v>
+      </c>
+      <c r="E158" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" t="s">
+        <v>509</v>
+      </c>
+      <c r="E159" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" t="s">
+        <v>510</v>
+      </c>
+      <c r="E160" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="s">
+        <v>211</v>
+      </c>
+      <c r="D161" t="s">
+        <v>511</v>
+      </c>
+      <c r="E161" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" t="s">
+        <v>212</v>
+      </c>
+      <c r="D162" t="s">
+        <v>512</v>
+      </c>
+      <c r="E162" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" t="s">
+        <v>213</v>
+      </c>
+      <c r="D163" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="s">
+        <v>214</v>
+      </c>
+      <c r="D164" t="s">
+        <v>514</v>
+      </c>
+      <c r="E164" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" t="s">
+        <v>515</v>
+      </c>
+      <c r="E165" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>216</v>
+      </c>
+      <c r="D166" t="s">
+        <v>516</v>
+      </c>
+      <c r="E166" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>67</v>
+      </c>
+      <c r="D167" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>217</v>
+      </c>
+      <c r="D168" t="s">
+        <v>517</v>
+      </c>
+      <c r="E168" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>218</v>
+      </c>
+      <c r="D169" t="s">
+        <v>518</v>
+      </c>
+      <c r="E169" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>219</v>
+      </c>
+      <c r="D170" t="s">
+        <v>519</v>
+      </c>
+      <c r="E170" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>220</v>
+      </c>
+      <c r="D171" t="s">
+        <v>520</v>
+      </c>
+      <c r="E171" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" t="s">
+        <v>221</v>
+      </c>
+      <c r="D172" t="s">
+        <v>521</v>
+      </c>
+      <c r="E172" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" t="s">
+        <v>222</v>
+      </c>
+      <c r="D173" t="s">
+        <v>522</v>
+      </c>
+      <c r="E173" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" t="s">
+        <v>523</v>
+      </c>
+      <c r="E174" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" t="s">
+        <v>524</v>
+      </c>
+      <c r="E175" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" t="s">
+        <v>525</v>
+      </c>
+      <c r="E176" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" t="s">
+        <v>526</v>
+      </c>
+      <c r="E177" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>227</v>
+      </c>
+      <c r="D178" t="s">
+        <v>527</v>
+      </c>
+      <c r="E178" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>228</v>
+      </c>
+      <c r="D179" t="s">
+        <v>528</v>
+      </c>
+      <c r="E179" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>229</v>
+      </c>
+      <c r="D180" t="s">
+        <v>529</v>
+      </c>
+      <c r="E180" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>230</v>
+      </c>
+      <c r="D181" t="s">
+        <v>530</v>
+      </c>
+      <c r="E181" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="s">
+        <v>231</v>
+      </c>
+      <c r="D182" t="s">
+        <v>531</v>
+      </c>
+      <c r="E182" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183" t="s">
+        <v>532</v>
+      </c>
+      <c r="E183" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>233</v>
+      </c>
+      <c r="D184" t="s">
+        <v>533</v>
+      </c>
+      <c r="E184" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" t="s">
+        <v>234</v>
+      </c>
+      <c r="D185" t="s">
+        <v>534</v>
+      </c>
+      <c r="E185" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>235</v>
+      </c>
+      <c r="D186" t="s">
+        <v>535</v>
+      </c>
+      <c r="E186" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>236</v>
+      </c>
+      <c r="D187" t="s">
+        <v>536</v>
+      </c>
+      <c r="E187" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>237</v>
+      </c>
+      <c r="D188" t="s">
+        <v>537</v>
+      </c>
+      <c r="E188" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="s">
+        <v>238</v>
+      </c>
+      <c r="D189" t="s">
+        <v>538</v>
+      </c>
+      <c r="E189" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>239</v>
+      </c>
+      <c r="D190" t="s">
+        <v>539</v>
+      </c>
+      <c r="E190" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>240</v>
+      </c>
+      <c r="D191" t="s">
+        <v>540</v>
+      </c>
+      <c r="E191" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>241</v>
+      </c>
+      <c r="D192" t="s">
+        <v>541</v>
+      </c>
+      <c r="E192" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>242</v>
+      </c>
+      <c r="D193" t="s">
+        <v>542</v>
+      </c>
+      <c r="E193" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>107</v>
+      </c>
+      <c r="D194" t="s">
+        <v>407</v>
+      </c>
+      <c r="E194" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>243</v>
+      </c>
+      <c r="D195" t="s">
+        <v>543</v>
+      </c>
+      <c r="E195" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" t="s">
+        <v>244</v>
+      </c>
+      <c r="D196" t="s">
+        <v>544</v>
+      </c>
+      <c r="E196" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" t="s">
+        <v>245</v>
+      </c>
+      <c r="D197" t="s">
+        <v>545</v>
+      </c>
+      <c r="E197" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D198" t="s">
+        <v>546</v>
+      </c>
+      <c r="E198" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" t="s">
+        <v>247</v>
+      </c>
+      <c r="D199" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" t="s">
+        <v>548</v>
+      </c>
+      <c r="E200" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201" t="s">
+        <v>369</v>
+      </c>
+      <c r="E201" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" t="s">
+        <v>549</v>
+      </c>
+      <c r="E202" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" t="s">
+        <v>250</v>
+      </c>
+      <c r="D203" t="s">
+        <v>550</v>
+      </c>
+      <c r="E203" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>403</v>
+      </c>
+      <c r="E204" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>251</v>
+      </c>
+      <c r="D205" t="s">
+        <v>551</v>
+      </c>
+      <c r="E205" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>24</v>
+      </c>
+      <c r="C206" t="s">
+        <v>252</v>
+      </c>
+      <c r="D206" t="s">
+        <v>552</v>
+      </c>
+      <c r="E206" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>78</v>
+      </c>
+      <c r="D207" t="s">
+        <v>378</v>
+      </c>
+      <c r="E207" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" t="s">
+        <v>253</v>
+      </c>
+      <c r="D208" t="s">
+        <v>553</v>
+      </c>
+      <c r="E208" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>254</v>
+      </c>
+      <c r="D209" t="s">
+        <v>554</v>
+      </c>
+      <c r="E209" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" t="s">
+        <v>255</v>
+      </c>
+      <c r="D210" t="s">
+        <v>555</v>
+      </c>
+      <c r="E210" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>26</v>
+      </c>
+      <c r="C211" t="s">
+        <v>256</v>
+      </c>
+      <c r="D211" t="s">
+        <v>556</v>
+      </c>
+      <c r="E211" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>26</v>
+      </c>
+      <c r="C212" t="s">
+        <v>257</v>
+      </c>
+      <c r="D212" t="s">
+        <v>557</v>
+      </c>
+      <c r="E212" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>26</v>
+      </c>
+      <c r="C213" t="s">
+        <v>258</v>
+      </c>
+      <c r="D213" t="s">
+        <v>558</v>
+      </c>
+      <c r="E213" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>259</v>
+      </c>
+      <c r="D214" t="s">
+        <v>559</v>
+      </c>
+      <c r="E214" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>260</v>
+      </c>
+      <c r="D215" t="s">
+        <v>560</v>
+      </c>
+      <c r="E215" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>261</v>
+      </c>
+      <c r="D216" t="s">
+        <v>561</v>
+      </c>
+      <c r="E216" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" t="s">
+        <v>262</v>
+      </c>
+      <c r="D217" t="s">
+        <v>562</v>
+      </c>
+      <c r="E217" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" t="s">
+        <v>263</v>
+      </c>
+      <c r="D218" t="s">
+        <v>563</v>
+      </c>
+      <c r="E218" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219" t="s">
+        <v>117</v>
+      </c>
+      <c r="D219" t="s">
+        <v>417</v>
+      </c>
+      <c r="E219" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" t="s">
+        <v>264</v>
+      </c>
+      <c r="D220" t="s">
+        <v>564</v>
+      </c>
+      <c r="E220" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>265</v>
+      </c>
+      <c r="D221" t="s">
+        <v>565</v>
+      </c>
+      <c r="E221" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" t="s">
+        <v>266</v>
+      </c>
+      <c r="D222" t="s">
+        <v>566</v>
+      </c>
+      <c r="E222" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" t="s">
+        <v>267</v>
+      </c>
+      <c r="D223" t="s">
+        <v>567</v>
+      </c>
+      <c r="E223" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" t="s">
+        <v>268</v>
+      </c>
+      <c r="D224" t="s">
+        <v>568</v>
+      </c>
+      <c r="E224" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" t="s">
+        <v>269</v>
+      </c>
+      <c r="D225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E225" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" t="s">
+        <v>570</v>
+      </c>
+      <c r="E226" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" t="s">
+        <v>271</v>
+      </c>
+      <c r="D227" t="s">
+        <v>571</v>
+      </c>
+      <c r="E227" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" t="s">
+        <v>272</v>
+      </c>
+      <c r="D228" t="s">
+        <v>572</v>
+      </c>
+      <c r="E228" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" t="s">
+        <v>273</v>
+      </c>
+      <c r="D229" t="s">
+        <v>573</v>
+      </c>
+      <c r="E229" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" t="s">
+        <v>274</v>
+      </c>
+      <c r="D230" t="s">
+        <v>574</v>
+      </c>
+      <c r="E230" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" t="s">
+        <v>275</v>
+      </c>
+      <c r="D231" t="s">
+        <v>575</v>
+      </c>
+      <c r="E231" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" t="s">
+        <v>276</v>
+      </c>
+      <c r="D232" t="s">
+        <v>576</v>
+      </c>
+      <c r="E232" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" t="s">
+        <v>277</v>
+      </c>
+      <c r="D233" t="s">
+        <v>577</v>
+      </c>
+      <c r="E233" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>32</v>
+      </c>
+      <c r="C234" t="s">
+        <v>278</v>
+      </c>
+      <c r="D234" t="s">
+        <v>578</v>
+      </c>
+      <c r="E234" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235" t="s">
+        <v>279</v>
+      </c>
+      <c r="D235" t="s">
+        <v>579</v>
+      </c>
+      <c r="E235" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" t="s">
+        <v>280</v>
+      </c>
+      <c r="D236" t="s">
+        <v>580</v>
+      </c>
+      <c r="E236" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" t="s">
+        <v>281</v>
+      </c>
+      <c r="D237" t="s">
+        <v>581</v>
+      </c>
+      <c r="E237" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>34</v>
+      </c>
+      <c r="C238" t="s">
+        <v>282</v>
+      </c>
+      <c r="D238" t="s">
+        <v>582</v>
+      </c>
+      <c r="E238" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>34</v>
+      </c>
+      <c r="C239" t="s">
+        <v>283</v>
+      </c>
+      <c r="D239" t="s">
+        <v>583</v>
+      </c>
+      <c r="E239" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>34</v>
+      </c>
+      <c r="C240" t="s">
+        <v>284</v>
+      </c>
+      <c r="D240" t="s">
+        <v>584</v>
+      </c>
+      <c r="E240" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>34</v>
+      </c>
+      <c r="C241" t="s">
+        <v>285</v>
+      </c>
+      <c r="D241" t="s">
+        <v>585</v>
+      </c>
+      <c r="E241" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>34</v>
+      </c>
+      <c r="C242" t="s">
+        <v>286</v>
+      </c>
+      <c r="D242" t="s">
+        <v>586</v>
+      </c>
+      <c r="E242" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243" t="s">
+        <v>287</v>
+      </c>
+      <c r="D243" t="s">
+        <v>587</v>
+      </c>
+      <c r="E243" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" t="s">
+        <v>288</v>
+      </c>
+      <c r="D244" t="s">
+        <v>588</v>
+      </c>
+      <c r="E244" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" t="s">
+        <v>367</v>
+      </c>
+      <c r="E245" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" t="s">
+        <v>78</v>
+      </c>
+      <c r="D246" t="s">
+        <v>378</v>
+      </c>
+      <c r="E246" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247" t="s">
+        <v>289</v>
+      </c>
+      <c r="D247" t="s">
+        <v>589</v>
+      </c>
+      <c r="E247" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" t="s">
+        <v>103</v>
+      </c>
+      <c r="D248" t="s">
+        <v>403</v>
+      </c>
+      <c r="E248" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" t="s">
+        <v>103</v>
+      </c>
+      <c r="D249" t="s">
+        <v>403</v>
+      </c>
+      <c r="E249" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" t="s">
+        <v>290</v>
+      </c>
+      <c r="D250" t="s">
+        <v>590</v>
+      </c>
+      <c r="E250" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" t="s">
+        <v>291</v>
+      </c>
+      <c r="D251" t="s">
+        <v>591</v>
+      </c>
+      <c r="E251" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" t="s">
+        <v>130</v>
+      </c>
+      <c r="D252" t="s">
+        <v>430</v>
+      </c>
+      <c r="E252" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" t="s">
+        <v>292</v>
+      </c>
+      <c r="D253" t="s">
+        <v>592</v>
+      </c>
+      <c r="E253" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254" t="s">
+        <v>293</v>
+      </c>
+      <c r="D254" t="s">
+        <v>593</v>
+      </c>
+      <c r="E254" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
+        <v>294</v>
+      </c>
+      <c r="D255" t="s">
+        <v>594</v>
+      </c>
+      <c r="E255" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>38</v>
+      </c>
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" t="s">
+        <v>595</v>
+      </c>
+      <c r="E256" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>296</v>
+      </c>
+      <c r="D257" t="s">
+        <v>596</v>
+      </c>
+      <c r="E257" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>39</v>
+      </c>
+      <c r="C258" t="s">
+        <v>297</v>
+      </c>
+      <c r="D258" t="s">
+        <v>597</v>
+      </c>
+      <c r="E258" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259" t="s">
+        <v>298</v>
+      </c>
+      <c r="D259" t="s">
+        <v>598</v>
+      </c>
+      <c r="E259" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>39</v>
+      </c>
+      <c r="C260" t="s">
+        <v>299</v>
+      </c>
+      <c r="D260" t="s">
+        <v>599</v>
+      </c>
+      <c r="E260" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>39</v>
+      </c>
+      <c r="C261" t="s">
+        <v>300</v>
+      </c>
+      <c r="D261" t="s">
+        <v>600</v>
+      </c>
+      <c r="E261" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>40</v>
+      </c>
+      <c r="C262" t="s">
+        <v>301</v>
+      </c>
+      <c r="D262" t="s">
+        <v>601</v>
+      </c>
+      <c r="E262" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>40</v>
+      </c>
+      <c r="C263" t="s">
+        <v>302</v>
+      </c>
+      <c r="D263" t="s">
+        <v>602</v>
+      </c>
+      <c r="E263" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>41</v>
+      </c>
+      <c r="C264" t="s">
+        <v>151</v>
+      </c>
+      <c r="D264" t="s">
+        <v>451</v>
+      </c>
+      <c r="E264" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>41</v>
+      </c>
+      <c r="C265" t="s">
+        <v>303</v>
+      </c>
+      <c r="D265" t="s">
+        <v>603</v>
+      </c>
+      <c r="E265" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>41</v>
+      </c>
+      <c r="C266" t="s">
+        <v>304</v>
+      </c>
+      <c r="D266" t="s">
+        <v>604</v>
+      </c>
+      <c r="E266" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267" t="s">
+        <v>103</v>
+      </c>
+      <c r="D267" t="s">
+        <v>403</v>
+      </c>
+      <c r="E267" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>41</v>
+      </c>
+      <c r="C268" t="s">
+        <v>305</v>
+      </c>
+      <c r="D268" t="s">
+        <v>605</v>
+      </c>
+      <c r="E268" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" t="s">
+        <v>284</v>
+      </c>
+      <c r="D269" t="s">
+        <v>584</v>
+      </c>
+      <c r="E269" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" t="s">
+        <v>306</v>
+      </c>
+      <c r="D270" t="s">
+        <v>606</v>
+      </c>
+      <c r="E270" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>41</v>
+      </c>
+      <c r="C271" t="s">
+        <v>307</v>
+      </c>
+      <c r="D271" t="s">
+        <v>607</v>
+      </c>
+      <c r="E271" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" t="s">
+        <v>107</v>
+      </c>
+      <c r="D272" t="s">
+        <v>407</v>
+      </c>
+      <c r="E272" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C273" t="s">
+        <v>261</v>
+      </c>
+      <c r="D273" t="s">
+        <v>561</v>
+      </c>
+      <c r="E273" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" t="s">
+        <v>308</v>
+      </c>
+      <c r="D274" t="s">
+        <v>608</v>
+      </c>
+      <c r="E274" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>42</v>
+      </c>
+      <c r="C275" t="s">
+        <v>309</v>
+      </c>
+      <c r="D275" t="s">
+        <v>609</v>
+      </c>
+      <c r="E275" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>43</v>
+      </c>
+      <c r="C276" t="s">
+        <v>310</v>
+      </c>
+      <c r="D276" t="s">
+        <v>610</v>
+      </c>
+      <c r="E276" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>43</v>
+      </c>
+      <c r="C277" t="s">
+        <v>121</v>
+      </c>
+      <c r="D277" t="s">
+        <v>421</v>
+      </c>
+      <c r="E277" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>44</v>
+      </c>
+      <c r="C278" t="s">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>385</v>
+      </c>
+      <c r="E278" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" t="s">
+        <v>311</v>
+      </c>
+      <c r="D279" t="s">
+        <v>611</v>
+      </c>
+      <c r="E279" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" t="s">
+        <v>385</v>
+      </c>
+      <c r="E280" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>44</v>
+      </c>
+      <c r="C281" t="s">
+        <v>311</v>
+      </c>
+      <c r="D281" t="s">
+        <v>611</v>
+      </c>
+      <c r="E281" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>44</v>
+      </c>
+      <c r="C282" t="s">
+        <v>312</v>
+      </c>
+      <c r="D282" t="s">
+        <v>612</v>
+      </c>
+      <c r="E282" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>45</v>
+      </c>
+      <c r="C283" t="s">
+        <v>313</v>
+      </c>
+      <c r="D283" t="s">
+        <v>613</v>
+      </c>
+      <c r="E283" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>45</v>
+      </c>
+      <c r="C284" t="s">
+        <v>314</v>
+      </c>
+      <c r="D284" t="s">
+        <v>614</v>
+      </c>
+      <c r="E284" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>45</v>
+      </c>
+      <c r="C285" t="s">
+        <v>315</v>
+      </c>
+      <c r="D285" t="s">
+        <v>615</v>
+      </c>
+      <c r="E285" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>45</v>
+      </c>
+      <c r="C286" t="s">
+        <v>316</v>
+      </c>
+      <c r="D286" t="s">
+        <v>616</v>
+      </c>
+      <c r="E286" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>46</v>
+      </c>
+      <c r="C287" t="s">
+        <v>317</v>
+      </c>
+      <c r="D287" t="s">
+        <v>617</v>
+      </c>
+      <c r="E287" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>46</v>
+      </c>
+      <c r="C288" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" t="s">
+        <v>589</v>
+      </c>
+      <c r="E288" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>47</v>
+      </c>
+      <c r="C289" t="s">
+        <v>107</v>
+      </c>
+      <c r="D289" t="s">
+        <v>407</v>
+      </c>
+      <c r="E289" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" t="s">
+        <v>78</v>
+      </c>
+      <c r="D290" t="s">
+        <v>378</v>
+      </c>
+      <c r="E290" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" t="s">
+        <v>107</v>
+      </c>
+      <c r="D291" t="s">
+        <v>407</v>
+      </c>
+      <c r="E291" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>47</v>
+      </c>
+      <c r="C292" t="s">
+        <v>318</v>
+      </c>
+      <c r="D292" t="s">
+        <v>618</v>
+      </c>
+      <c r="E292" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" t="s">
+        <v>319</v>
+      </c>
+      <c r="D293" t="s">
+        <v>619</v>
+      </c>
+      <c r="E293" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>48</v>
+      </c>
+      <c r="C294" t="s">
+        <v>320</v>
+      </c>
+      <c r="D294" t="s">
+        <v>620</v>
+      </c>
+      <c r="E294" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>49</v>
+      </c>
+      <c r="C295" t="s">
+        <v>305</v>
+      </c>
+      <c r="D295" t="s">
+        <v>605</v>
+      </c>
+      <c r="E295" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>48</v>
+      </c>
+      <c r="C296" t="s">
+        <v>103</v>
+      </c>
+      <c r="D296" t="s">
+        <v>403</v>
+      </c>
+      <c r="E296" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>48</v>
+      </c>
+      <c r="C297" t="s">
+        <v>321</v>
+      </c>
+      <c r="D297" t="s">
+        <v>621</v>
+      </c>
+      <c r="E297" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>48</v>
+      </c>
+      <c r="C298" t="s">
+        <v>322</v>
+      </c>
+      <c r="D298" t="s">
+        <v>622</v>
+      </c>
+      <c r="E298" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>48</v>
+      </c>
+      <c r="C299" t="s">
+        <v>323</v>
+      </c>
+      <c r="D299" t="s">
+        <v>623</v>
+      </c>
+      <c r="E299" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" t="s">
+        <v>324</v>
+      </c>
+      <c r="D300" t="s">
+        <v>624</v>
+      </c>
+      <c r="E300" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>50</v>
+      </c>
+      <c r="C301" t="s">
+        <v>325</v>
+      </c>
+      <c r="D301" t="s">
+        <v>625</v>
+      </c>
+      <c r="E301" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>49</v>
+      </c>
+      <c r="C302" t="s">
+        <v>326</v>
+      </c>
+      <c r="D302" t="s">
+        <v>626</v>
+      </c>
+      <c r="E302" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>49</v>
+      </c>
+      <c r="C303" t="s">
+        <v>158</v>
+      </c>
+      <c r="D303" t="s">
+        <v>458</v>
+      </c>
+      <c r="E303" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>49</v>
+      </c>
+      <c r="C304" t="s">
+        <v>327</v>
+      </c>
+      <c r="D304" t="s">
+        <v>627</v>
+      </c>
+      <c r="E304" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>51</v>
+      </c>
+      <c r="C305" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" t="s">
+        <v>395</v>
+      </c>
+      <c r="E305" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>49</v>
+      </c>
+      <c r="C306" t="s">
+        <v>272</v>
+      </c>
+      <c r="D306" t="s">
+        <v>572</v>
+      </c>
+      <c r="E306" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>49</v>
+      </c>
+      <c r="C307" t="s">
+        <v>328</v>
+      </c>
+      <c r="D307" t="s">
+        <v>628</v>
+      </c>
+      <c r="E307" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>49</v>
+      </c>
+      <c r="C308" t="s">
+        <v>329</v>
+      </c>
+      <c r="D308" t="s">
+        <v>629</v>
+      </c>
+      <c r="E308" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>49</v>
+      </c>
+      <c r="C309" t="s">
+        <v>295</v>
+      </c>
+      <c r="D309" t="s">
+        <v>595</v>
+      </c>
+      <c r="E309" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>52</v>
+      </c>
+      <c r="C310" t="s">
+        <v>121</v>
+      </c>
+      <c r="D310" t="s">
+        <v>421</v>
+      </c>
+      <c r="E310" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>52</v>
+      </c>
+      <c r="C311" t="s">
+        <v>310</v>
+      </c>
+      <c r="D311" t="s">
+        <v>610</v>
+      </c>
+      <c r="E311" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>52</v>
+      </c>
+      <c r="C312" t="s">
+        <v>330</v>
+      </c>
+      <c r="D312" t="s">
+        <v>630</v>
+      </c>
+      <c r="E312" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>52</v>
+      </c>
+      <c r="C313" t="s">
+        <v>331</v>
+      </c>
+      <c r="D313" t="s">
+        <v>631</v>
+      </c>
+      <c r="E313" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>52</v>
+      </c>
+      <c r="C314" t="s">
+        <v>332</v>
+      </c>
+      <c r="D314" t="s">
+        <v>632</v>
+      </c>
+      <c r="E314" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>53</v>
+      </c>
+      <c r="C315" t="s">
+        <v>333</v>
+      </c>
+      <c r="D315" t="s">
+        <v>633</v>
+      </c>
+      <c r="E315" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>51</v>
+      </c>
+      <c r="C316" t="s">
+        <v>334</v>
+      </c>
+      <c r="D316" t="s">
+        <v>634</v>
+      </c>
+      <c r="E316" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>51</v>
+      </c>
+      <c r="C317" t="s">
+        <v>335</v>
+      </c>
+      <c r="D317" t="s">
+        <v>635</v>
+      </c>
+      <c r="E317" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>53</v>
+      </c>
+      <c r="C318" t="s">
+        <v>264</v>
+      </c>
+      <c r="D318" t="s">
+        <v>564</v>
+      </c>
+      <c r="E318" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>53</v>
+      </c>
+      <c r="C319" t="s">
+        <v>336</v>
+      </c>
+      <c r="D319" t="s">
+        <v>636</v>
+      </c>
+      <c r="E319" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>53</v>
+      </c>
+      <c r="C320" t="s">
+        <v>337</v>
+      </c>
+      <c r="D320" t="s">
+        <v>637</v>
+      </c>
+      <c r="E320" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>53</v>
+      </c>
+      <c r="C321" t="s">
+        <v>338</v>
+      </c>
+      <c r="D321" t="s">
+        <v>638</v>
+      </c>
+      <c r="E321" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>53</v>
+      </c>
+      <c r="C322" t="s">
+        <v>339</v>
+      </c>
+      <c r="D322" t="s">
+        <v>639</v>
+      </c>
+      <c r="E322" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323" t="s">
+        <v>340</v>
+      </c>
+      <c r="D323" t="s">
+        <v>640</v>
+      </c>
+      <c r="E323" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>53</v>
+      </c>
+      <c r="C324" t="s">
+        <v>129</v>
+      </c>
+      <c r="D324" t="s">
+        <v>429</v>
+      </c>
+      <c r="E324" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>53</v>
+      </c>
+      <c r="C325" t="s">
+        <v>341</v>
+      </c>
+      <c r="D325" t="s">
+        <v>641</v>
+      </c>
+      <c r="E325" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>54</v>
+      </c>
+      <c r="C326" t="s">
+        <v>342</v>
+      </c>
+      <c r="D326" t="s">
+        <v>642</v>
+      </c>
+      <c r="E326" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>55</v>
+      </c>
+      <c r="C327" t="s">
+        <v>277</v>
+      </c>
+      <c r="D327" t="s">
+        <v>577</v>
+      </c>
+      <c r="E327" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>55</v>
+      </c>
+      <c r="C328" t="s">
+        <v>343</v>
+      </c>
+      <c r="D328" t="s">
+        <v>643</v>
+      </c>
+      <c r="E328" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>55</v>
+      </c>
+      <c r="C329" t="s">
+        <v>344</v>
+      </c>
+      <c r="D329" t="s">
+        <v>644</v>
+      </c>
+      <c r="E329" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>55</v>
+      </c>
+      <c r="C330" t="s">
+        <v>344</v>
+      </c>
+      <c r="D330" t="s">
+        <v>644</v>
+      </c>
+      <c r="E330" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>55</v>
+      </c>
+      <c r="C331" t="s">
+        <v>152</v>
+      </c>
+      <c r="D331" t="s">
+        <v>452</v>
+      </c>
+      <c r="E331" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
         <v>56</v>
       </c>
-      <c r="D72" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" t="s">
-        <v>146</v>
+      <c r="C332" t="s">
+        <v>261</v>
+      </c>
+      <c r="D332" t="s">
+        <v>561</v>
+      </c>
+      <c r="E332" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>56</v>
+      </c>
+      <c r="C333" t="s">
+        <v>76</v>
+      </c>
+      <c r="D333" t="s">
+        <v>376</v>
+      </c>
+      <c r="E333" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>56</v>
+      </c>
+      <c r="C334" t="s">
+        <v>345</v>
+      </c>
+      <c r="D334" t="s">
+        <v>645</v>
+      </c>
+      <c r="E334" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>56</v>
+      </c>
+      <c r="C335" t="s">
+        <v>346</v>
+      </c>
+      <c r="D335" t="s">
+        <v>646</v>
+      </c>
+      <c r="E335" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>57</v>
+      </c>
+      <c r="C336" t="s">
+        <v>138</v>
+      </c>
+      <c r="D336" t="s">
+        <v>438</v>
+      </c>
+      <c r="E336" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>58</v>
+      </c>
+      <c r="C337" t="s">
+        <v>345</v>
+      </c>
+      <c r="D337" t="s">
+        <v>645</v>
+      </c>
+      <c r="E337" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>58</v>
+      </c>
+      <c r="C338" t="s">
+        <v>347</v>
+      </c>
+      <c r="D338" t="s">
+        <v>647</v>
+      </c>
+      <c r="E338" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>59</v>
+      </c>
+      <c r="C339" t="s">
+        <v>348</v>
+      </c>
+      <c r="D339" t="s">
+        <v>648</v>
+      </c>
+      <c r="E339" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>59</v>
+      </c>
+      <c r="C340" t="s">
+        <v>349</v>
+      </c>
+      <c r="D340" t="s">
+        <v>649</v>
+      </c>
+      <c r="E340" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>59</v>
+      </c>
+      <c r="C341" t="s">
+        <v>350</v>
+      </c>
+      <c r="D341" t="s">
+        <v>650</v>
+      </c>
+      <c r="E341" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>59</v>
+      </c>
+      <c r="C342" t="s">
+        <v>275</v>
+      </c>
+      <c r="D342" t="s">
+        <v>575</v>
+      </c>
+      <c r="E342" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>60</v>
+      </c>
+      <c r="C343" t="s">
+        <v>351</v>
+      </c>
+      <c r="D343" t="s">
+        <v>651</v>
+      </c>
+      <c r="E343" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>60</v>
+      </c>
+      <c r="C344" t="s">
+        <v>352</v>
+      </c>
+      <c r="D344" t="s">
+        <v>652</v>
+      </c>
+      <c r="E344" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>60</v>
+      </c>
+      <c r="C345" t="s">
+        <v>353</v>
+      </c>
+      <c r="D345" t="s">
+        <v>653</v>
+      </c>
+      <c r="E345" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>60</v>
+      </c>
+      <c r="C346" t="s">
+        <v>354</v>
+      </c>
+      <c r="D346" t="s">
+        <v>654</v>
+      </c>
+      <c r="E346" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>60</v>
+      </c>
+      <c r="C347" t="s">
+        <v>355</v>
+      </c>
+      <c r="D347" t="s">
+        <v>655</v>
+      </c>
+      <c r="E347" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>60</v>
+      </c>
+      <c r="C348" t="s">
+        <v>356</v>
+      </c>
+      <c r="D348" t="s">
+        <v>656</v>
+      </c>
+      <c r="E348" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>60</v>
+      </c>
+      <c r="C349" t="s">
+        <v>357</v>
+      </c>
+      <c r="D349" t="s">
+        <v>657</v>
+      </c>
+      <c r="E349" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>61</v>
+      </c>
+      <c r="C350" t="s">
+        <v>358</v>
+      </c>
+      <c r="D350" t="s">
+        <v>658</v>
+      </c>
+      <c r="E350" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>61</v>
+      </c>
+      <c r="C351" t="s">
+        <v>359</v>
+      </c>
+      <c r="D351" t="s">
+        <v>659</v>
+      </c>
+      <c r="E351" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>62</v>
+      </c>
+      <c r="C352" t="s">
+        <v>360</v>
+      </c>
+      <c r="D352" t="s">
+        <v>660</v>
+      </c>
+      <c r="E352" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>62</v>
+      </c>
+      <c r="C353" t="s">
+        <v>361</v>
+      </c>
+      <c r="D353" t="s">
+        <v>661</v>
+      </c>
+      <c r="E353" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>63</v>
+      </c>
+      <c r="C354" t="s">
+        <v>362</v>
+      </c>
+      <c r="D354" t="s">
+        <v>662</v>
+      </c>
+      <c r="E354" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>63</v>
+      </c>
+      <c r="C355" t="s">
+        <v>363</v>
+      </c>
+      <c r="D355" t="s">
+        <v>663</v>
+      </c>
+      <c r="E355" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>
